--- a/product-definitions/spreadsheet/flux-estimates.xlsx
+++ b/product-definitions/spreadsheet/flux-estimates.xlsx
@@ -14,24 +14,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Proposed name</t>
   </si>
   <si>
@@ -110,7 +110,7 @@
     <t>J m-2 s-1</t>
   </si>
   <si>
-    <t>Buoyancy Flux (rho.cp.&lt;w'Ts'&gt;)</t>
+    <t>Buoyancy Flux (&lt;w'Ts'&gt;)</t>
   </si>
   <si>
     <t>cell_methods</t>
@@ -355,17 +355,23 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -373,14 +379,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
@@ -445,66 +445,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1"/>
@@ -1529,22 +1529,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1552,13 +1552,13 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1566,15 +1566,15 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1582,8 +1582,8 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1623,24 +1623,24 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="C12" s="7"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1648,15 +1648,15 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1664,8 +1664,8 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1705,24 +1705,24 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="C23" s="7"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1730,15 +1730,15 @@
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -1746,8 +1746,8 @@
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1787,24 +1787,24 @@
       <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="C34" s="7"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1812,15 +1812,15 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1828,8 +1828,8 @@
       <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1877,24 +1877,24 @@
       <c r="B45" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="C46" s="7"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1902,15 +1902,15 @@
       <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1918,8 +1918,8 @@
       <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1967,24 +1967,24 @@
       <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" ht="12.0" customHeight="1">
-      <c r="C58" s="7"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1992,15 +1992,15 @@
       <c r="B61" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2008,8 +2008,8 @@
       <c r="B63" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       <c r="B68" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2057,24 +2057,24 @@
       <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
-      <c r="C70" s="7"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="7"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2082,15 +2082,15 @@
       <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       <c r="B75" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       <c r="B80" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2146,24 +2146,24 @@
       <c r="B81" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1">
-      <c r="C82" s="7"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="7"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="B84" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2171,15 +2171,15 @@
       <c r="B85" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="B88" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       <c r="B92" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2235,24 +2235,24 @@
       <c r="B93" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="94" ht="12.0" customHeight="1">
-      <c r="C94" s="7"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" ht="12.0" customHeight="1">
       <c r="A95" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" ht="12.0" customHeight="1">
       <c r="B96" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2260,15 +2260,15 @@
       <c r="B97" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" ht="12.0" customHeight="1">
       <c r="B98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2276,8 +2276,8 @@
       <c r="B99" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7" t="s">
+      <c r="C99" s="9"/>
+      <c r="D99" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       <c r="B100" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       <c r="B104" t="s">
         <v>33</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2325,24 +2325,24 @@
       <c r="B105" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="106" ht="12.0" customHeight="1">
-      <c r="C106" s="7"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" ht="12.0" customHeight="1">
       <c r="A107" t="s">
         <v>49</v>
       </c>
-      <c r="C107" s="7"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" ht="12.0" customHeight="1">
       <c r="B108" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2350,15 +2350,15 @@
       <c r="B109" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="110" ht="12.0" customHeight="1">
       <c r="B110" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2366,8 +2366,8 @@
       <c r="B111" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7" t="s">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       <c r="B112" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       <c r="B116" t="s">
         <v>33</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2415,24 +2415,24 @@
       <c r="B117" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="118" ht="12.0" customHeight="1">
-      <c r="C118" s="7"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" ht="12.0" customHeight="1">
       <c r="A119" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="7"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" ht="12.0" customHeight="1">
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2440,15 +2440,15 @@
       <c r="B121" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="122" ht="12.0" customHeight="1">
       <c r="B122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="7">
+        <v>2</v>
+      </c>
+      <c r="C122" s="9">
         <v>1.0</v>
       </c>
     </row>
@@ -2456,8 +2456,8 @@
       <c r="B123" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7" t="s">
+      <c r="C123" s="9"/>
+      <c r="D123" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       <c r="B124" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="B128" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2505,12 +2505,12 @@
       <c r="B129" t="s">
         <v>22</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="130" ht="12.0" customHeight="1">
-      <c r="C130" s="7"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" ht="12.0" customHeight="1">
       <c r="A131" s="13" t="s">
@@ -2540,7 +2540,7 @@
     <row r="134" ht="12.0" customHeight="1">
       <c r="A134" s="13"/>
       <c r="B134" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C134" s="12">
         <v>1.0</v>
@@ -2613,7 +2613,7 @@
     <row r="143" ht="12.0" customHeight="1">
       <c r="A143" s="13"/>
       <c r="B143" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C143" s="12">
         <v>1.0</v>
@@ -2686,7 +2686,7 @@
     <row r="152" ht="12.0" customHeight="1">
       <c r="A152" s="13"/>
       <c r="B152" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C152" s="12">
         <v>1.0</v>
@@ -2759,7 +2759,7 @@
     <row r="161" ht="12.0" customHeight="1">
       <c r="A161" s="13"/>
       <c r="B161" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C161" s="12">
         <v>1.0</v>
@@ -2832,7 +2832,7 @@
     <row r="170" ht="12.0" customHeight="1">
       <c r="A170" s="13"/>
       <c r="B170" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C170" s="12">
         <v>1.0</v>
@@ -2905,7 +2905,7 @@
     <row r="179" ht="12.0" customHeight="1">
       <c r="A179" s="13"/>
       <c r="B179" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C179" s="12">
         <v>1.0</v>
@@ -2978,7 +2978,7 @@
     <row r="188" ht="12.0" customHeight="1">
       <c r="A188" s="13"/>
       <c r="B188" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C188" s="12">
         <v>1.0</v>
@@ -3051,7 +3051,7 @@
     <row r="197" ht="12.0" customHeight="1">
       <c r="A197" s="13"/>
       <c r="B197" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C197" s="12">
         <v>1.0</v>
@@ -3124,7 +3124,7 @@
     <row r="206" ht="12.0" customHeight="1">
       <c r="A206" s="13"/>
       <c r="B206" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C206" s="12">
         <v>1.0</v>
@@ -3197,7 +3197,7 @@
     <row r="215" ht="12.0" customHeight="1">
       <c r="A215" s="13"/>
       <c r="B215" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C215" s="12">
         <v>1.0</v>
@@ -3270,7 +3270,7 @@
     <row r="224" ht="12.0" customHeight="1">
       <c r="A224" s="13"/>
       <c r="B224" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C224" s="12">
         <v>1.0</v>
@@ -3343,7 +3343,7 @@
     <row r="233" ht="12.0" customHeight="1">
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C233" s="12">
         <v>1.0</v>
@@ -3416,7 +3416,7 @@
     <row r="242" ht="12.0" customHeight="1">
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C242" s="12">
         <v>1.0</v>
@@ -3489,7 +3489,7 @@
     <row r="251" ht="12.0" customHeight="1">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C251" s="12">
         <v>1.0</v>
@@ -3562,7 +3562,7 @@
     <row r="260" ht="12.0" customHeight="1">
       <c r="A260" s="13"/>
       <c r="B260" s="13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C260" s="12">
         <v>1.0</v>
@@ -3603,2125 +3603,2125 @@
       </c>
     </row>
     <row r="265" ht="12.0" customHeight="1">
-      <c r="C265" s="7"/>
+      <c r="C265" s="9"/>
     </row>
     <row r="266" ht="12.0" customHeight="1">
-      <c r="C266" s="7"/>
+      <c r="C266" s="9"/>
     </row>
     <row r="267" ht="12.0" customHeight="1">
-      <c r="C267" s="7"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" ht="12.0" customHeight="1">
-      <c r="C268" s="7"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269" ht="12.0" customHeight="1">
-      <c r="C269" s="7"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" ht="12.0" customHeight="1">
-      <c r="C270" s="7"/>
+      <c r="C270" s="9"/>
     </row>
     <row r="271" ht="12.0" customHeight="1">
-      <c r="C271" s="7"/>
+      <c r="C271" s="9"/>
     </row>
     <row r="272" ht="12.0" customHeight="1">
-      <c r="C272" s="7"/>
+      <c r="C272" s="9"/>
     </row>
     <row r="273" ht="12.0" customHeight="1">
-      <c r="C273" s="7"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" ht="12.0" customHeight="1">
-      <c r="C274" s="7"/>
+      <c r="C274" s="9"/>
     </row>
     <row r="275" ht="12.0" customHeight="1">
-      <c r="C275" s="7"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" ht="12.0" customHeight="1">
-      <c r="C276" s="7"/>
+      <c r="C276" s="9"/>
     </row>
     <row r="277" ht="12.0" customHeight="1">
-      <c r="C277" s="7"/>
+      <c r="C277" s="9"/>
     </row>
     <row r="278" ht="12.0" customHeight="1">
-      <c r="C278" s="7"/>
+      <c r="C278" s="9"/>
     </row>
     <row r="279" ht="12.0" customHeight="1">
-      <c r="C279" s="7"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" ht="12.0" customHeight="1">
-      <c r="C280" s="7"/>
+      <c r="C280" s="9"/>
     </row>
     <row r="281" ht="12.0" customHeight="1">
-      <c r="C281" s="7"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282" ht="12.0" customHeight="1">
-      <c r="C282" s="7"/>
+      <c r="C282" s="9"/>
     </row>
     <row r="283" ht="12.0" customHeight="1">
-      <c r="C283" s="7"/>
+      <c r="C283" s="9"/>
     </row>
     <row r="284" ht="12.0" customHeight="1">
-      <c r="C284" s="7"/>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" ht="12.0" customHeight="1">
-      <c r="C285" s="7"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" ht="12.0" customHeight="1">
-      <c r="C286" s="7"/>
+      <c r="C286" s="9"/>
     </row>
     <row r="287" ht="12.0" customHeight="1">
-      <c r="C287" s="7"/>
+      <c r="C287" s="9"/>
     </row>
     <row r="288" ht="12.0" customHeight="1">
-      <c r="C288" s="7"/>
+      <c r="C288" s="9"/>
     </row>
     <row r="289" ht="12.0" customHeight="1">
-      <c r="C289" s="7"/>
+      <c r="C289" s="9"/>
     </row>
     <row r="290" ht="12.0" customHeight="1">
-      <c r="C290" s="7"/>
+      <c r="C290" s="9"/>
     </row>
     <row r="291" ht="12.0" customHeight="1">
-      <c r="C291" s="7"/>
+      <c r="C291" s="9"/>
     </row>
     <row r="292" ht="12.0" customHeight="1">
-      <c r="C292" s="7"/>
+      <c r="C292" s="9"/>
     </row>
     <row r="293" ht="12.0" customHeight="1">
-      <c r="C293" s="7"/>
+      <c r="C293" s="9"/>
     </row>
     <row r="294" ht="12.0" customHeight="1">
-      <c r="C294" s="7"/>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" ht="12.0" customHeight="1">
-      <c r="C295" s="7"/>
+      <c r="C295" s="9"/>
     </row>
     <row r="296" ht="12.0" customHeight="1">
-      <c r="C296" s="7"/>
+      <c r="C296" s="9"/>
     </row>
     <row r="297" ht="12.0" customHeight="1">
-      <c r="C297" s="7"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298" ht="12.0" customHeight="1">
-      <c r="C298" s="7"/>
+      <c r="C298" s="9"/>
     </row>
     <row r="299" ht="12.0" customHeight="1">
-      <c r="C299" s="7"/>
+      <c r="C299" s="9"/>
     </row>
     <row r="300" ht="12.0" customHeight="1">
-      <c r="C300" s="7"/>
+      <c r="C300" s="9"/>
     </row>
     <row r="301" ht="12.0" customHeight="1">
-      <c r="C301" s="7"/>
+      <c r="C301" s="9"/>
     </row>
     <row r="302" ht="12.0" customHeight="1">
-      <c r="C302" s="7"/>
+      <c r="C302" s="9"/>
     </row>
     <row r="303" ht="12.0" customHeight="1">
-      <c r="C303" s="7"/>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" ht="12.0" customHeight="1">
-      <c r="C304" s="7"/>
+      <c r="C304" s="9"/>
     </row>
     <row r="305" ht="12.0" customHeight="1">
-      <c r="C305" s="7"/>
+      <c r="C305" s="9"/>
     </row>
     <row r="306" ht="12.0" customHeight="1">
-      <c r="C306" s="7"/>
+      <c r="C306" s="9"/>
     </row>
     <row r="307" ht="12.0" customHeight="1">
-      <c r="C307" s="7"/>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" ht="12.0" customHeight="1">
-      <c r="C308" s="7"/>
+      <c r="C308" s="9"/>
     </row>
     <row r="309" ht="12.0" customHeight="1">
-      <c r="C309" s="7"/>
+      <c r="C309" s="9"/>
     </row>
     <row r="310" ht="12.0" customHeight="1">
-      <c r="C310" s="7"/>
+      <c r="C310" s="9"/>
     </row>
     <row r="311" ht="12.0" customHeight="1">
-      <c r="C311" s="7"/>
+      <c r="C311" s="9"/>
     </row>
     <row r="312" ht="12.0" customHeight="1">
-      <c r="C312" s="7"/>
+      <c r="C312" s="9"/>
     </row>
     <row r="313" ht="12.0" customHeight="1">
-      <c r="C313" s="7"/>
+      <c r="C313" s="9"/>
     </row>
     <row r="314" ht="12.0" customHeight="1">
-      <c r="C314" s="7"/>
+      <c r="C314" s="9"/>
     </row>
     <row r="315" ht="12.0" customHeight="1">
-      <c r="C315" s="7"/>
+      <c r="C315" s="9"/>
     </row>
     <row r="316" ht="12.0" customHeight="1">
-      <c r="C316" s="7"/>
+      <c r="C316" s="9"/>
     </row>
     <row r="317" ht="12.0" customHeight="1">
-      <c r="C317" s="7"/>
+      <c r="C317" s="9"/>
     </row>
     <row r="318" ht="12.0" customHeight="1">
-      <c r="C318" s="7"/>
+      <c r="C318" s="9"/>
     </row>
     <row r="319" ht="12.0" customHeight="1">
-      <c r="C319" s="7"/>
+      <c r="C319" s="9"/>
     </row>
     <row r="320" ht="12.0" customHeight="1">
-      <c r="C320" s="7"/>
+      <c r="C320" s="9"/>
     </row>
     <row r="321" ht="12.0" customHeight="1">
-      <c r="C321" s="7"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322" ht="12.0" customHeight="1">
-      <c r="C322" s="7"/>
+      <c r="C322" s="9"/>
     </row>
     <row r="323" ht="12.0" customHeight="1">
-      <c r="C323" s="7"/>
+      <c r="C323" s="9"/>
     </row>
     <row r="324" ht="12.0" customHeight="1">
-      <c r="C324" s="7"/>
+      <c r="C324" s="9"/>
     </row>
     <row r="325" ht="12.0" customHeight="1">
-      <c r="C325" s="7"/>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" ht="12.0" customHeight="1">
-      <c r="C326" s="7"/>
+      <c r="C326" s="9"/>
     </row>
     <row r="327" ht="12.0" customHeight="1">
-      <c r="C327" s="7"/>
+      <c r="C327" s="9"/>
     </row>
     <row r="328" ht="12.0" customHeight="1">
-      <c r="C328" s="7"/>
+      <c r="C328" s="9"/>
     </row>
     <row r="329" ht="12.0" customHeight="1">
-      <c r="C329" s="7"/>
+      <c r="C329" s="9"/>
     </row>
     <row r="330" ht="12.0" customHeight="1">
-      <c r="C330" s="7"/>
+      <c r="C330" s="9"/>
     </row>
     <row r="331" ht="12.0" customHeight="1">
-      <c r="C331" s="7"/>
+      <c r="C331" s="9"/>
     </row>
     <row r="332" ht="12.0" customHeight="1">
-      <c r="C332" s="7"/>
+      <c r="C332" s="9"/>
     </row>
     <row r="333" ht="12.0" customHeight="1">
-      <c r="C333" s="7"/>
+      <c r="C333" s="9"/>
     </row>
     <row r="334" ht="12.0" customHeight="1">
-      <c r="C334" s="7"/>
+      <c r="C334" s="9"/>
     </row>
     <row r="335" ht="12.0" customHeight="1">
-      <c r="C335" s="7"/>
+      <c r="C335" s="9"/>
     </row>
     <row r="336" ht="12.0" customHeight="1">
-      <c r="C336" s="7"/>
+      <c r="C336" s="9"/>
     </row>
     <row r="337" ht="12.0" customHeight="1">
-      <c r="C337" s="7"/>
+      <c r="C337" s="9"/>
     </row>
     <row r="338" ht="12.0" customHeight="1">
-      <c r="C338" s="7"/>
+      <c r="C338" s="9"/>
     </row>
     <row r="339" ht="12.0" customHeight="1">
-      <c r="C339" s="7"/>
+      <c r="C339" s="9"/>
     </row>
     <row r="340" ht="12.0" customHeight="1">
-      <c r="C340" s="7"/>
+      <c r="C340" s="9"/>
     </row>
     <row r="341" ht="12.0" customHeight="1">
-      <c r="C341" s="7"/>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" ht="12.0" customHeight="1">
-      <c r="C342" s="7"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" ht="12.0" customHeight="1">
-      <c r="C343" s="7"/>
+      <c r="C343" s="9"/>
     </row>
     <row r="344" ht="12.0" customHeight="1">
-      <c r="C344" s="7"/>
+      <c r="C344" s="9"/>
     </row>
     <row r="345" ht="12.0" customHeight="1">
-      <c r="C345" s="7"/>
+      <c r="C345" s="9"/>
     </row>
     <row r="346" ht="12.0" customHeight="1">
-      <c r="C346" s="7"/>
+      <c r="C346" s="9"/>
     </row>
     <row r="347" ht="12.0" customHeight="1">
-      <c r="C347" s="7"/>
+      <c r="C347" s="9"/>
     </row>
     <row r="348" ht="12.0" customHeight="1">
-      <c r="C348" s="7"/>
+      <c r="C348" s="9"/>
     </row>
     <row r="349" ht="12.0" customHeight="1">
-      <c r="C349" s="7"/>
+      <c r="C349" s="9"/>
     </row>
     <row r="350" ht="12.0" customHeight="1">
-      <c r="C350" s="7"/>
+      <c r="C350" s="9"/>
     </row>
     <row r="351" ht="12.0" customHeight="1">
-      <c r="C351" s="7"/>
+      <c r="C351" s="9"/>
     </row>
     <row r="352" ht="12.0" customHeight="1">
-      <c r="C352" s="7"/>
+      <c r="C352" s="9"/>
     </row>
     <row r="353" ht="12.0" customHeight="1">
-      <c r="C353" s="7"/>
+      <c r="C353" s="9"/>
     </row>
     <row r="354" ht="12.0" customHeight="1">
-      <c r="C354" s="7"/>
+      <c r="C354" s="9"/>
     </row>
     <row r="355" ht="12.0" customHeight="1">
-      <c r="C355" s="7"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356" ht="12.0" customHeight="1">
-      <c r="C356" s="7"/>
+      <c r="C356" s="9"/>
     </row>
     <row r="357" ht="12.0" customHeight="1">
-      <c r="C357" s="7"/>
+      <c r="C357" s="9"/>
     </row>
     <row r="358" ht="12.0" customHeight="1">
-      <c r="C358" s="7"/>
+      <c r="C358" s="9"/>
     </row>
     <row r="359" ht="12.0" customHeight="1">
-      <c r="C359" s="7"/>
+      <c r="C359" s="9"/>
     </row>
     <row r="360" ht="12.0" customHeight="1">
-      <c r="C360" s="7"/>
+      <c r="C360" s="9"/>
     </row>
     <row r="361" ht="12.0" customHeight="1">
-      <c r="C361" s="7"/>
+      <c r="C361" s="9"/>
     </row>
     <row r="362" ht="12.0" customHeight="1">
-      <c r="C362" s="7"/>
+      <c r="C362" s="9"/>
     </row>
     <row r="363" ht="12.0" customHeight="1">
-      <c r="C363" s="7"/>
+      <c r="C363" s="9"/>
     </row>
     <row r="364" ht="12.0" customHeight="1">
-      <c r="C364" s="7"/>
+      <c r="C364" s="9"/>
     </row>
     <row r="365" ht="12.0" customHeight="1">
-      <c r="C365" s="7"/>
+      <c r="C365" s="9"/>
     </row>
     <row r="366" ht="12.0" customHeight="1">
-      <c r="C366" s="7"/>
+      <c r="C366" s="9"/>
     </row>
     <row r="367" ht="12.0" customHeight="1">
-      <c r="C367" s="7"/>
+      <c r="C367" s="9"/>
     </row>
     <row r="368" ht="12.0" customHeight="1">
-      <c r="C368" s="7"/>
+      <c r="C368" s="9"/>
     </row>
     <row r="369" ht="12.0" customHeight="1">
-      <c r="C369" s="7"/>
+      <c r="C369" s="9"/>
     </row>
     <row r="370" ht="12.0" customHeight="1">
-      <c r="C370" s="7"/>
+      <c r="C370" s="9"/>
     </row>
     <row r="371" ht="12.0" customHeight="1">
-      <c r="C371" s="7"/>
+      <c r="C371" s="9"/>
     </row>
     <row r="372" ht="12.0" customHeight="1">
-      <c r="C372" s="7"/>
+      <c r="C372" s="9"/>
     </row>
     <row r="373" ht="12.0" customHeight="1">
-      <c r="C373" s="7"/>
+      <c r="C373" s="9"/>
     </row>
     <row r="374" ht="12.0" customHeight="1">
-      <c r="C374" s="7"/>
+      <c r="C374" s="9"/>
     </row>
     <row r="375" ht="12.0" customHeight="1">
-      <c r="C375" s="7"/>
+      <c r="C375" s="9"/>
     </row>
     <row r="376" ht="12.0" customHeight="1">
-      <c r="C376" s="7"/>
+      <c r="C376" s="9"/>
     </row>
     <row r="377" ht="12.0" customHeight="1">
-      <c r="C377" s="7"/>
+      <c r="C377" s="9"/>
     </row>
     <row r="378" ht="12.0" customHeight="1">
-      <c r="C378" s="7"/>
+      <c r="C378" s="9"/>
     </row>
     <row r="379" ht="12.0" customHeight="1">
-      <c r="C379" s="7"/>
+      <c r="C379" s="9"/>
     </row>
     <row r="380" ht="12.0" customHeight="1">
-      <c r="C380" s="7"/>
+      <c r="C380" s="9"/>
     </row>
     <row r="381" ht="12.0" customHeight="1">
-      <c r="C381" s="7"/>
+      <c r="C381" s="9"/>
     </row>
     <row r="382" ht="12.0" customHeight="1">
-      <c r="C382" s="7"/>
+      <c r="C382" s="9"/>
     </row>
     <row r="383" ht="12.0" customHeight="1">
-      <c r="C383" s="7"/>
+      <c r="C383" s="9"/>
     </row>
     <row r="384" ht="12.0" customHeight="1">
-      <c r="C384" s="7"/>
+      <c r="C384" s="9"/>
     </row>
     <row r="385" ht="12.0" customHeight="1">
-      <c r="C385" s="7"/>
+      <c r="C385" s="9"/>
     </row>
     <row r="386" ht="12.0" customHeight="1">
-      <c r="C386" s="7"/>
+      <c r="C386" s="9"/>
     </row>
     <row r="387" ht="12.0" customHeight="1">
-      <c r="C387" s="7"/>
+      <c r="C387" s="9"/>
     </row>
     <row r="388" ht="12.0" customHeight="1">
-      <c r="C388" s="7"/>
+      <c r="C388" s="9"/>
     </row>
     <row r="389" ht="12.0" customHeight="1">
-      <c r="C389" s="7"/>
+      <c r="C389" s="9"/>
     </row>
     <row r="390" ht="12.0" customHeight="1">
-      <c r="C390" s="7"/>
+      <c r="C390" s="9"/>
     </row>
     <row r="391" ht="12.0" customHeight="1">
-      <c r="C391" s="7"/>
+      <c r="C391" s="9"/>
     </row>
     <row r="392" ht="12.0" customHeight="1">
-      <c r="C392" s="7"/>
+      <c r="C392" s="9"/>
     </row>
     <row r="393" ht="12.0" customHeight="1">
-      <c r="C393" s="7"/>
+      <c r="C393" s="9"/>
     </row>
     <row r="394" ht="12.0" customHeight="1">
-      <c r="C394" s="7"/>
+      <c r="C394" s="9"/>
     </row>
     <row r="395" ht="12.0" customHeight="1">
-      <c r="C395" s="7"/>
+      <c r="C395" s="9"/>
     </row>
     <row r="396" ht="12.0" customHeight="1">
-      <c r="C396" s="7"/>
+      <c r="C396" s="9"/>
     </row>
     <row r="397" ht="12.0" customHeight="1">
-      <c r="C397" s="7"/>
+      <c r="C397" s="9"/>
     </row>
     <row r="398" ht="12.0" customHeight="1">
-      <c r="C398" s="7"/>
+      <c r="C398" s="9"/>
     </row>
     <row r="399" ht="12.0" customHeight="1">
-      <c r="C399" s="7"/>
+      <c r="C399" s="9"/>
     </row>
     <row r="400" ht="12.0" customHeight="1">
-      <c r="C400" s="7"/>
+      <c r="C400" s="9"/>
     </row>
     <row r="401" ht="12.0" customHeight="1">
-      <c r="C401" s="7"/>
+      <c r="C401" s="9"/>
     </row>
     <row r="402" ht="12.0" customHeight="1">
-      <c r="C402" s="7"/>
+      <c r="C402" s="9"/>
     </row>
     <row r="403" ht="12.0" customHeight="1">
-      <c r="C403" s="7"/>
+      <c r="C403" s="9"/>
     </row>
     <row r="404" ht="12.0" customHeight="1">
-      <c r="C404" s="7"/>
+      <c r="C404" s="9"/>
     </row>
     <row r="405" ht="12.0" customHeight="1">
-      <c r="C405" s="7"/>
+      <c r="C405" s="9"/>
     </row>
     <row r="406" ht="12.0" customHeight="1">
-      <c r="C406" s="7"/>
+      <c r="C406" s="9"/>
     </row>
     <row r="407" ht="12.0" customHeight="1">
-      <c r="C407" s="7"/>
+      <c r="C407" s="9"/>
     </row>
     <row r="408" ht="12.0" customHeight="1">
-      <c r="C408" s="7"/>
+      <c r="C408" s="9"/>
     </row>
     <row r="409" ht="12.0" customHeight="1">
-      <c r="C409" s="7"/>
+      <c r="C409" s="9"/>
     </row>
     <row r="410" ht="12.0" customHeight="1">
-      <c r="C410" s="7"/>
+      <c r="C410" s="9"/>
     </row>
     <row r="411" ht="12.0" customHeight="1">
-      <c r="C411" s="7"/>
+      <c r="C411" s="9"/>
     </row>
     <row r="412" ht="12.0" customHeight="1">
-      <c r="C412" s="7"/>
+      <c r="C412" s="9"/>
     </row>
     <row r="413" ht="12.0" customHeight="1">
-      <c r="C413" s="7"/>
+      <c r="C413" s="9"/>
     </row>
     <row r="414" ht="12.0" customHeight="1">
-      <c r="C414" s="7"/>
+      <c r="C414" s="9"/>
     </row>
     <row r="415" ht="12.0" customHeight="1">
-      <c r="C415" s="7"/>
+      <c r="C415" s="9"/>
     </row>
     <row r="416" ht="12.0" customHeight="1">
-      <c r="C416" s="7"/>
+      <c r="C416" s="9"/>
     </row>
     <row r="417" ht="12.0" customHeight="1">
-      <c r="C417" s="7"/>
+      <c r="C417" s="9"/>
     </row>
     <row r="418" ht="12.0" customHeight="1">
-      <c r="C418" s="7"/>
+      <c r="C418" s="9"/>
     </row>
     <row r="419" ht="12.0" customHeight="1">
-      <c r="C419" s="7"/>
+      <c r="C419" s="9"/>
     </row>
     <row r="420" ht="12.0" customHeight="1">
-      <c r="C420" s="7"/>
+      <c r="C420" s="9"/>
     </row>
     <row r="421" ht="12.0" customHeight="1">
-      <c r="C421" s="7"/>
+      <c r="C421" s="9"/>
     </row>
     <row r="422" ht="12.0" customHeight="1">
-      <c r="C422" s="7"/>
+      <c r="C422" s="9"/>
     </row>
     <row r="423" ht="12.0" customHeight="1">
-      <c r="C423" s="7"/>
+      <c r="C423" s="9"/>
     </row>
     <row r="424" ht="12.0" customHeight="1">
-      <c r="C424" s="7"/>
+      <c r="C424" s="9"/>
     </row>
     <row r="425" ht="12.0" customHeight="1">
-      <c r="C425" s="7"/>
+      <c r="C425" s="9"/>
     </row>
     <row r="426" ht="12.0" customHeight="1">
-      <c r="C426" s="7"/>
+      <c r="C426" s="9"/>
     </row>
     <row r="427" ht="12.0" customHeight="1">
-      <c r="C427" s="7"/>
+      <c r="C427" s="9"/>
     </row>
     <row r="428" ht="12.0" customHeight="1">
-      <c r="C428" s="7"/>
+      <c r="C428" s="9"/>
     </row>
     <row r="429" ht="12.0" customHeight="1">
-      <c r="C429" s="7"/>
+      <c r="C429" s="9"/>
     </row>
     <row r="430" ht="12.0" customHeight="1">
-      <c r="C430" s="7"/>
+      <c r="C430" s="9"/>
     </row>
     <row r="431" ht="12.0" customHeight="1">
-      <c r="C431" s="7"/>
+      <c r="C431" s="9"/>
     </row>
     <row r="432" ht="12.0" customHeight="1">
-      <c r="C432" s="7"/>
+      <c r="C432" s="9"/>
     </row>
     <row r="433" ht="12.0" customHeight="1">
-      <c r="C433" s="7"/>
+      <c r="C433" s="9"/>
     </row>
     <row r="434" ht="12.0" customHeight="1">
-      <c r="C434" s="7"/>
+      <c r="C434" s="9"/>
     </row>
     <row r="435" ht="12.0" customHeight="1">
-      <c r="C435" s="7"/>
+      <c r="C435" s="9"/>
     </row>
     <row r="436" ht="12.0" customHeight="1">
-      <c r="C436" s="7"/>
+      <c r="C436" s="9"/>
     </row>
     <row r="437" ht="12.0" customHeight="1">
-      <c r="C437" s="7"/>
+      <c r="C437" s="9"/>
     </row>
     <row r="438" ht="12.0" customHeight="1">
-      <c r="C438" s="7"/>
+      <c r="C438" s="9"/>
     </row>
     <row r="439" ht="12.0" customHeight="1">
-      <c r="C439" s="7"/>
+      <c r="C439" s="9"/>
     </row>
     <row r="440" ht="12.0" customHeight="1">
-      <c r="C440" s="7"/>
+      <c r="C440" s="9"/>
     </row>
     <row r="441" ht="12.0" customHeight="1">
-      <c r="C441" s="7"/>
+      <c r="C441" s="9"/>
     </row>
     <row r="442" ht="12.0" customHeight="1">
-      <c r="C442" s="7"/>
+      <c r="C442" s="9"/>
     </row>
     <row r="443" ht="12.0" customHeight="1">
-      <c r="C443" s="7"/>
+      <c r="C443" s="9"/>
     </row>
     <row r="444" ht="12.0" customHeight="1">
-      <c r="C444" s="7"/>
+      <c r="C444" s="9"/>
     </row>
     <row r="445" ht="12.0" customHeight="1">
-      <c r="C445" s="7"/>
+      <c r="C445" s="9"/>
     </row>
     <row r="446" ht="12.0" customHeight="1">
-      <c r="C446" s="7"/>
+      <c r="C446" s="9"/>
     </row>
     <row r="447" ht="12.0" customHeight="1">
-      <c r="C447" s="7"/>
+      <c r="C447" s="9"/>
     </row>
     <row r="448" ht="12.0" customHeight="1">
-      <c r="C448" s="7"/>
+      <c r="C448" s="9"/>
     </row>
     <row r="449" ht="12.0" customHeight="1">
-      <c r="C449" s="7"/>
+      <c r="C449" s="9"/>
     </row>
     <row r="450" ht="12.0" customHeight="1">
-      <c r="C450" s="7"/>
+      <c r="C450" s="9"/>
     </row>
     <row r="451" ht="12.0" customHeight="1">
-      <c r="C451" s="7"/>
+      <c r="C451" s="9"/>
     </row>
     <row r="452" ht="12.0" customHeight="1">
-      <c r="C452" s="7"/>
+      <c r="C452" s="9"/>
     </row>
     <row r="453" ht="12.0" customHeight="1">
-      <c r="C453" s="7"/>
+      <c r="C453" s="9"/>
     </row>
     <row r="454" ht="12.0" customHeight="1">
-      <c r="C454" s="7"/>
+      <c r="C454" s="9"/>
     </row>
     <row r="455" ht="12.0" customHeight="1">
-      <c r="C455" s="7"/>
+      <c r="C455" s="9"/>
     </row>
     <row r="456" ht="12.0" customHeight="1">
-      <c r="C456" s="7"/>
+      <c r="C456" s="9"/>
     </row>
     <row r="457" ht="12.0" customHeight="1">
-      <c r="C457" s="7"/>
+      <c r="C457" s="9"/>
     </row>
     <row r="458" ht="12.0" customHeight="1">
-      <c r="C458" s="7"/>
+      <c r="C458" s="9"/>
     </row>
     <row r="459" ht="12.0" customHeight="1">
-      <c r="C459" s="7"/>
+      <c r="C459" s="9"/>
     </row>
     <row r="460" ht="12.0" customHeight="1">
-      <c r="C460" s="7"/>
+      <c r="C460" s="9"/>
     </row>
     <row r="461" ht="12.0" customHeight="1">
-      <c r="C461" s="7"/>
+      <c r="C461" s="9"/>
     </row>
     <row r="462" ht="12.0" customHeight="1">
-      <c r="C462" s="7"/>
+      <c r="C462" s="9"/>
     </row>
     <row r="463" ht="12.0" customHeight="1">
-      <c r="C463" s="7"/>
+      <c r="C463" s="9"/>
     </row>
     <row r="464" ht="12.0" customHeight="1">
-      <c r="C464" s="7"/>
+      <c r="C464" s="9"/>
     </row>
     <row r="465" ht="12.0" customHeight="1">
-      <c r="C465" s="7"/>
+      <c r="C465" s="9"/>
     </row>
     <row r="466" ht="12.0" customHeight="1">
-      <c r="C466" s="7"/>
+      <c r="C466" s="9"/>
     </row>
     <row r="467" ht="12.0" customHeight="1">
-      <c r="C467" s="7"/>
+      <c r="C467" s="9"/>
     </row>
     <row r="468" ht="12.0" customHeight="1">
-      <c r="C468" s="7"/>
+      <c r="C468" s="9"/>
     </row>
     <row r="469" ht="12.0" customHeight="1">
-      <c r="C469" s="7"/>
+      <c r="C469" s="9"/>
     </row>
     <row r="470" ht="12.0" customHeight="1">
-      <c r="C470" s="7"/>
+      <c r="C470" s="9"/>
     </row>
     <row r="471" ht="12.0" customHeight="1">
-      <c r="C471" s="7"/>
+      <c r="C471" s="9"/>
     </row>
     <row r="472" ht="12.0" customHeight="1">
-      <c r="C472" s="7"/>
+      <c r="C472" s="9"/>
     </row>
     <row r="473" ht="12.0" customHeight="1">
-      <c r="C473" s="7"/>
+      <c r="C473" s="9"/>
     </row>
     <row r="474" ht="12.0" customHeight="1">
-      <c r="C474" s="7"/>
+      <c r="C474" s="9"/>
     </row>
     <row r="475" ht="12.0" customHeight="1">
-      <c r="C475" s="7"/>
+      <c r="C475" s="9"/>
     </row>
     <row r="476" ht="12.0" customHeight="1">
-      <c r="C476" s="7"/>
+      <c r="C476" s="9"/>
     </row>
     <row r="477" ht="12.0" customHeight="1">
-      <c r="C477" s="7"/>
+      <c r="C477" s="9"/>
     </row>
     <row r="478" ht="12.0" customHeight="1">
-      <c r="C478" s="7"/>
+      <c r="C478" s="9"/>
     </row>
     <row r="479" ht="12.0" customHeight="1">
-      <c r="C479" s="7"/>
+      <c r="C479" s="9"/>
     </row>
     <row r="480" ht="12.0" customHeight="1">
-      <c r="C480" s="7"/>
+      <c r="C480" s="9"/>
     </row>
     <row r="481" ht="12.0" customHeight="1">
-      <c r="C481" s="7"/>
+      <c r="C481" s="9"/>
     </row>
     <row r="482" ht="12.0" customHeight="1">
-      <c r="C482" s="7"/>
+      <c r="C482" s="9"/>
     </row>
     <row r="483" ht="12.0" customHeight="1">
-      <c r="C483" s="7"/>
+      <c r="C483" s="9"/>
     </row>
     <row r="484" ht="12.0" customHeight="1">
-      <c r="C484" s="7"/>
+      <c r="C484" s="9"/>
     </row>
     <row r="485" ht="12.0" customHeight="1">
-      <c r="C485" s="7"/>
+      <c r="C485" s="9"/>
     </row>
     <row r="486" ht="12.0" customHeight="1">
-      <c r="C486" s="7"/>
+      <c r="C486" s="9"/>
     </row>
     <row r="487" ht="12.0" customHeight="1">
-      <c r="C487" s="7"/>
+      <c r="C487" s="9"/>
     </row>
     <row r="488" ht="12.0" customHeight="1">
-      <c r="C488" s="7"/>
+      <c r="C488" s="9"/>
     </row>
     <row r="489" ht="12.0" customHeight="1">
-      <c r="C489" s="7"/>
+      <c r="C489" s="9"/>
     </row>
     <row r="490" ht="12.0" customHeight="1">
-      <c r="C490" s="7"/>
+      <c r="C490" s="9"/>
     </row>
     <row r="491" ht="12.0" customHeight="1">
-      <c r="C491" s="7"/>
+      <c r="C491" s="9"/>
     </row>
     <row r="492" ht="12.0" customHeight="1">
-      <c r="C492" s="7"/>
+      <c r="C492" s="9"/>
     </row>
     <row r="493" ht="12.0" customHeight="1">
-      <c r="C493" s="7"/>
+      <c r="C493" s="9"/>
     </row>
     <row r="494" ht="12.0" customHeight="1">
-      <c r="C494" s="7"/>
+      <c r="C494" s="9"/>
     </row>
     <row r="495" ht="12.0" customHeight="1">
-      <c r="C495" s="7"/>
+      <c r="C495" s="9"/>
     </row>
     <row r="496" ht="12.0" customHeight="1">
-      <c r="C496" s="7"/>
+      <c r="C496" s="9"/>
     </row>
     <row r="497" ht="12.0" customHeight="1">
-      <c r="C497" s="7"/>
+      <c r="C497" s="9"/>
     </row>
     <row r="498" ht="12.0" customHeight="1">
-      <c r="C498" s="7"/>
+      <c r="C498" s="9"/>
     </row>
     <row r="499" ht="12.0" customHeight="1">
-      <c r="C499" s="7"/>
+      <c r="C499" s="9"/>
     </row>
     <row r="500" ht="12.0" customHeight="1">
-      <c r="C500" s="7"/>
+      <c r="C500" s="9"/>
     </row>
     <row r="501" ht="12.0" customHeight="1">
-      <c r="C501" s="7"/>
+      <c r="C501" s="9"/>
     </row>
     <row r="502" ht="12.0" customHeight="1">
-      <c r="C502" s="7"/>
+      <c r="C502" s="9"/>
     </row>
     <row r="503" ht="12.0" customHeight="1">
-      <c r="C503" s="7"/>
+      <c r="C503" s="9"/>
     </row>
     <row r="504" ht="12.0" customHeight="1">
-      <c r="C504" s="7"/>
+      <c r="C504" s="9"/>
     </row>
     <row r="505" ht="12.0" customHeight="1">
-      <c r="C505" s="7"/>
+      <c r="C505" s="9"/>
     </row>
     <row r="506" ht="12.0" customHeight="1">
-      <c r="C506" s="7"/>
+      <c r="C506" s="9"/>
     </row>
     <row r="507" ht="12.0" customHeight="1">
-      <c r="C507" s="7"/>
+      <c r="C507" s="9"/>
     </row>
     <row r="508" ht="12.0" customHeight="1">
-      <c r="C508" s="7"/>
+      <c r="C508" s="9"/>
     </row>
     <row r="509" ht="12.0" customHeight="1">
-      <c r="C509" s="7"/>
+      <c r="C509" s="9"/>
     </row>
     <row r="510" ht="12.0" customHeight="1">
-      <c r="C510" s="7"/>
+      <c r="C510" s="9"/>
     </row>
     <row r="511" ht="12.0" customHeight="1">
-      <c r="C511" s="7"/>
+      <c r="C511" s="9"/>
     </row>
     <row r="512" ht="12.0" customHeight="1">
-      <c r="C512" s="7"/>
+      <c r="C512" s="9"/>
     </row>
     <row r="513" ht="12.0" customHeight="1">
-      <c r="C513" s="7"/>
+      <c r="C513" s="9"/>
     </row>
     <row r="514" ht="12.0" customHeight="1">
-      <c r="C514" s="7"/>
+      <c r="C514" s="9"/>
     </row>
     <row r="515" ht="12.0" customHeight="1">
-      <c r="C515" s="7"/>
+      <c r="C515" s="9"/>
     </row>
     <row r="516" ht="12.0" customHeight="1">
-      <c r="C516" s="7"/>
+      <c r="C516" s="9"/>
     </row>
     <row r="517" ht="12.0" customHeight="1">
-      <c r="C517" s="7"/>
+      <c r="C517" s="9"/>
     </row>
     <row r="518" ht="12.0" customHeight="1">
-      <c r="C518" s="7"/>
+      <c r="C518" s="9"/>
     </row>
     <row r="519" ht="12.0" customHeight="1">
-      <c r="C519" s="7"/>
+      <c r="C519" s="9"/>
     </row>
     <row r="520" ht="12.0" customHeight="1">
-      <c r="C520" s="7"/>
+      <c r="C520" s="9"/>
     </row>
     <row r="521" ht="12.0" customHeight="1">
-      <c r="C521" s="7"/>
+      <c r="C521" s="9"/>
     </row>
     <row r="522" ht="12.0" customHeight="1">
-      <c r="C522" s="7"/>
+      <c r="C522" s="9"/>
     </row>
     <row r="523" ht="12.0" customHeight="1">
-      <c r="C523" s="7"/>
+      <c r="C523" s="9"/>
     </row>
     <row r="524" ht="12.0" customHeight="1">
-      <c r="C524" s="7"/>
+      <c r="C524" s="9"/>
     </row>
     <row r="525" ht="12.0" customHeight="1">
-      <c r="C525" s="7"/>
+      <c r="C525" s="9"/>
     </row>
     <row r="526" ht="12.0" customHeight="1">
-      <c r="C526" s="7"/>
+      <c r="C526" s="9"/>
     </row>
     <row r="527" ht="12.0" customHeight="1">
-      <c r="C527" s="7"/>
+      <c r="C527" s="9"/>
     </row>
     <row r="528" ht="12.0" customHeight="1">
-      <c r="C528" s="7"/>
+      <c r="C528" s="9"/>
     </row>
     <row r="529" ht="12.0" customHeight="1">
-      <c r="C529" s="7"/>
+      <c r="C529" s="9"/>
     </row>
     <row r="530" ht="12.0" customHeight="1">
-      <c r="C530" s="7"/>
+      <c r="C530" s="9"/>
     </row>
     <row r="531" ht="12.0" customHeight="1">
-      <c r="C531" s="7"/>
+      <c r="C531" s="9"/>
     </row>
     <row r="532" ht="12.0" customHeight="1">
-      <c r="C532" s="7"/>
+      <c r="C532" s="9"/>
     </row>
     <row r="533" ht="12.0" customHeight="1">
-      <c r="C533" s="7"/>
+      <c r="C533" s="9"/>
     </row>
     <row r="534" ht="12.0" customHeight="1">
-      <c r="C534" s="7"/>
+      <c r="C534" s="9"/>
     </row>
     <row r="535" ht="12.0" customHeight="1">
-      <c r="C535" s="7"/>
+      <c r="C535" s="9"/>
     </row>
     <row r="536" ht="12.0" customHeight="1">
-      <c r="C536" s="7"/>
+      <c r="C536" s="9"/>
     </row>
     <row r="537" ht="12.0" customHeight="1">
-      <c r="C537" s="7"/>
+      <c r="C537" s="9"/>
     </row>
     <row r="538" ht="12.0" customHeight="1">
-      <c r="C538" s="7"/>
+      <c r="C538" s="9"/>
     </row>
     <row r="539" ht="12.0" customHeight="1">
-      <c r="C539" s="7"/>
+      <c r="C539" s="9"/>
     </row>
     <row r="540" ht="12.0" customHeight="1">
-      <c r="C540" s="7"/>
+      <c r="C540" s="9"/>
     </row>
     <row r="541" ht="12.0" customHeight="1">
-      <c r="C541" s="7"/>
+      <c r="C541" s="9"/>
     </row>
     <row r="542" ht="12.0" customHeight="1">
-      <c r="C542" s="7"/>
+      <c r="C542" s="9"/>
     </row>
     <row r="543" ht="12.0" customHeight="1">
-      <c r="C543" s="7"/>
+      <c r="C543" s="9"/>
     </row>
     <row r="544" ht="12.0" customHeight="1">
-      <c r="C544" s="7"/>
+      <c r="C544" s="9"/>
     </row>
     <row r="545" ht="12.0" customHeight="1">
-      <c r="C545" s="7"/>
+      <c r="C545" s="9"/>
     </row>
     <row r="546" ht="12.0" customHeight="1">
-      <c r="C546" s="7"/>
+      <c r="C546" s="9"/>
     </row>
     <row r="547" ht="12.0" customHeight="1">
-      <c r="C547" s="7"/>
+      <c r="C547" s="9"/>
     </row>
     <row r="548" ht="12.0" customHeight="1">
-      <c r="C548" s="7"/>
+      <c r="C548" s="9"/>
     </row>
     <row r="549" ht="12.0" customHeight="1">
-      <c r="C549" s="7"/>
+      <c r="C549" s="9"/>
     </row>
     <row r="550" ht="12.0" customHeight="1">
-      <c r="C550" s="7"/>
+      <c r="C550" s="9"/>
     </row>
     <row r="551" ht="12.0" customHeight="1">
-      <c r="C551" s="7"/>
+      <c r="C551" s="9"/>
     </row>
     <row r="552" ht="12.0" customHeight="1">
-      <c r="C552" s="7"/>
+      <c r="C552" s="9"/>
     </row>
     <row r="553" ht="12.0" customHeight="1">
-      <c r="C553" s="7"/>
+      <c r="C553" s="9"/>
     </row>
     <row r="554" ht="12.0" customHeight="1">
-      <c r="C554" s="7"/>
+      <c r="C554" s="9"/>
     </row>
     <row r="555" ht="12.0" customHeight="1">
-      <c r="C555" s="7"/>
+      <c r="C555" s="9"/>
     </row>
     <row r="556" ht="12.0" customHeight="1">
-      <c r="C556" s="7"/>
+      <c r="C556" s="9"/>
     </row>
     <row r="557" ht="12.0" customHeight="1">
-      <c r="C557" s="7"/>
+      <c r="C557" s="9"/>
     </row>
     <row r="558" ht="12.0" customHeight="1">
-      <c r="C558" s="7"/>
+      <c r="C558" s="9"/>
     </row>
     <row r="559" ht="12.0" customHeight="1">
-      <c r="C559" s="7"/>
+      <c r="C559" s="9"/>
     </row>
     <row r="560" ht="12.0" customHeight="1">
-      <c r="C560" s="7"/>
+      <c r="C560" s="9"/>
     </row>
     <row r="561" ht="12.0" customHeight="1">
-      <c r="C561" s="7"/>
+      <c r="C561" s="9"/>
     </row>
     <row r="562" ht="12.0" customHeight="1">
-      <c r="C562" s="7"/>
+      <c r="C562" s="9"/>
     </row>
     <row r="563" ht="12.0" customHeight="1">
-      <c r="C563" s="7"/>
+      <c r="C563" s="9"/>
     </row>
     <row r="564" ht="12.0" customHeight="1">
-      <c r="C564" s="7"/>
+      <c r="C564" s="9"/>
     </row>
     <row r="565" ht="12.0" customHeight="1">
-      <c r="C565" s="7"/>
+      <c r="C565" s="9"/>
     </row>
     <row r="566" ht="12.0" customHeight="1">
-      <c r="C566" s="7"/>
+      <c r="C566" s="9"/>
     </row>
     <row r="567" ht="12.0" customHeight="1">
-      <c r="C567" s="7"/>
+      <c r="C567" s="9"/>
     </row>
     <row r="568" ht="12.0" customHeight="1">
-      <c r="C568" s="7"/>
+      <c r="C568" s="9"/>
     </row>
     <row r="569" ht="12.0" customHeight="1">
-      <c r="C569" s="7"/>
+      <c r="C569" s="9"/>
     </row>
     <row r="570" ht="12.0" customHeight="1">
-      <c r="C570" s="7"/>
+      <c r="C570" s="9"/>
     </row>
     <row r="571" ht="12.0" customHeight="1">
-      <c r="C571" s="7"/>
+      <c r="C571" s="9"/>
     </row>
     <row r="572" ht="12.0" customHeight="1">
-      <c r="C572" s="7"/>
+      <c r="C572" s="9"/>
     </row>
     <row r="573" ht="12.0" customHeight="1">
-      <c r="C573" s="7"/>
+      <c r="C573" s="9"/>
     </row>
     <row r="574" ht="12.0" customHeight="1">
-      <c r="C574" s="7"/>
+      <c r="C574" s="9"/>
     </row>
     <row r="575" ht="12.0" customHeight="1">
-      <c r="C575" s="7"/>
+      <c r="C575" s="9"/>
     </row>
     <row r="576" ht="12.0" customHeight="1">
-      <c r="C576" s="7"/>
+      <c r="C576" s="9"/>
     </row>
     <row r="577" ht="12.0" customHeight="1">
-      <c r="C577" s="7"/>
+      <c r="C577" s="9"/>
     </row>
     <row r="578" ht="12.0" customHeight="1">
-      <c r="C578" s="7"/>
+      <c r="C578" s="9"/>
     </row>
     <row r="579" ht="12.0" customHeight="1">
-      <c r="C579" s="7"/>
+      <c r="C579" s="9"/>
     </row>
     <row r="580" ht="12.0" customHeight="1">
-      <c r="C580" s="7"/>
+      <c r="C580" s="9"/>
     </row>
     <row r="581" ht="12.0" customHeight="1">
-      <c r="C581" s="7"/>
+      <c r="C581" s="9"/>
     </row>
     <row r="582" ht="12.0" customHeight="1">
-      <c r="C582" s="7"/>
+      <c r="C582" s="9"/>
     </row>
     <row r="583" ht="12.0" customHeight="1">
-      <c r="C583" s="7"/>
+      <c r="C583" s="9"/>
     </row>
     <row r="584" ht="12.0" customHeight="1">
-      <c r="C584" s="7"/>
+      <c r="C584" s="9"/>
     </row>
     <row r="585" ht="12.0" customHeight="1">
-      <c r="C585" s="7"/>
+      <c r="C585" s="9"/>
     </row>
     <row r="586" ht="12.0" customHeight="1">
-      <c r="C586" s="7"/>
+      <c r="C586" s="9"/>
     </row>
     <row r="587" ht="12.0" customHeight="1">
-      <c r="C587" s="7"/>
+      <c r="C587" s="9"/>
     </row>
     <row r="588" ht="12.0" customHeight="1">
-      <c r="C588" s="7"/>
+      <c r="C588" s="9"/>
     </row>
     <row r="589" ht="12.0" customHeight="1">
-      <c r="C589" s="7"/>
+      <c r="C589" s="9"/>
     </row>
     <row r="590" ht="12.0" customHeight="1">
-      <c r="C590" s="7"/>
+      <c r="C590" s="9"/>
     </row>
     <row r="591" ht="12.0" customHeight="1">
-      <c r="C591" s="7"/>
+      <c r="C591" s="9"/>
     </row>
     <row r="592" ht="12.0" customHeight="1">
-      <c r="C592" s="7"/>
+      <c r="C592" s="9"/>
     </row>
     <row r="593" ht="12.0" customHeight="1">
-      <c r="C593" s="7"/>
+      <c r="C593" s="9"/>
     </row>
     <row r="594" ht="12.0" customHeight="1">
-      <c r="C594" s="7"/>
+      <c r="C594" s="9"/>
     </row>
     <row r="595" ht="12.0" customHeight="1">
-      <c r="C595" s="7"/>
+      <c r="C595" s="9"/>
     </row>
     <row r="596" ht="12.0" customHeight="1">
-      <c r="C596" s="7"/>
+      <c r="C596" s="9"/>
     </row>
     <row r="597" ht="12.0" customHeight="1">
-      <c r="C597" s="7"/>
+      <c r="C597" s="9"/>
     </row>
     <row r="598" ht="12.0" customHeight="1">
-      <c r="C598" s="7"/>
+      <c r="C598" s="9"/>
     </row>
     <row r="599" ht="12.0" customHeight="1">
-      <c r="C599" s="7"/>
+      <c r="C599" s="9"/>
     </row>
     <row r="600" ht="12.0" customHeight="1">
-      <c r="C600" s="7"/>
+      <c r="C600" s="9"/>
     </row>
     <row r="601" ht="12.0" customHeight="1">
-      <c r="C601" s="7"/>
+      <c r="C601" s="9"/>
     </row>
     <row r="602" ht="12.0" customHeight="1">
-      <c r="C602" s="7"/>
+      <c r="C602" s="9"/>
     </row>
     <row r="603" ht="12.0" customHeight="1">
-      <c r="C603" s="7"/>
+      <c r="C603" s="9"/>
     </row>
     <row r="604" ht="12.0" customHeight="1">
-      <c r="C604" s="7"/>
+      <c r="C604" s="9"/>
     </row>
     <row r="605" ht="12.0" customHeight="1">
-      <c r="C605" s="7"/>
+      <c r="C605" s="9"/>
     </row>
     <row r="606" ht="12.0" customHeight="1">
-      <c r="C606" s="7"/>
+      <c r="C606" s="9"/>
     </row>
     <row r="607" ht="12.0" customHeight="1">
-      <c r="C607" s="7"/>
+      <c r="C607" s="9"/>
     </row>
     <row r="608" ht="12.0" customHeight="1">
-      <c r="C608" s="7"/>
+      <c r="C608" s="9"/>
     </row>
     <row r="609" ht="12.0" customHeight="1">
-      <c r="C609" s="7"/>
+      <c r="C609" s="9"/>
     </row>
     <row r="610" ht="12.0" customHeight="1">
-      <c r="C610" s="7"/>
+      <c r="C610" s="9"/>
     </row>
     <row r="611" ht="12.0" customHeight="1">
-      <c r="C611" s="7"/>
+      <c r="C611" s="9"/>
     </row>
     <row r="612" ht="12.0" customHeight="1">
-      <c r="C612" s="7"/>
+      <c r="C612" s="9"/>
     </row>
     <row r="613" ht="12.0" customHeight="1">
-      <c r="C613" s="7"/>
+      <c r="C613" s="9"/>
     </row>
     <row r="614" ht="12.0" customHeight="1">
-      <c r="C614" s="7"/>
+      <c r="C614" s="9"/>
     </row>
     <row r="615" ht="12.0" customHeight="1">
-      <c r="C615" s="7"/>
+      <c r="C615" s="9"/>
     </row>
     <row r="616" ht="12.0" customHeight="1">
-      <c r="C616" s="7"/>
+      <c r="C616" s="9"/>
     </row>
     <row r="617" ht="12.0" customHeight="1">
-      <c r="C617" s="7"/>
+      <c r="C617" s="9"/>
     </row>
     <row r="618" ht="12.0" customHeight="1">
-      <c r="C618" s="7"/>
+      <c r="C618" s="9"/>
     </row>
     <row r="619" ht="12.0" customHeight="1">
-      <c r="C619" s="7"/>
+      <c r="C619" s="9"/>
     </row>
     <row r="620" ht="12.0" customHeight="1">
-      <c r="C620" s="7"/>
+      <c r="C620" s="9"/>
     </row>
     <row r="621" ht="12.0" customHeight="1">
-      <c r="C621" s="7"/>
+      <c r="C621" s="9"/>
     </row>
     <row r="622" ht="12.0" customHeight="1">
-      <c r="C622" s="7"/>
+      <c r="C622" s="9"/>
     </row>
     <row r="623" ht="12.0" customHeight="1">
-      <c r="C623" s="7"/>
+      <c r="C623" s="9"/>
     </row>
     <row r="624" ht="12.0" customHeight="1">
-      <c r="C624" s="7"/>
+      <c r="C624" s="9"/>
     </row>
     <row r="625" ht="12.0" customHeight="1">
-      <c r="C625" s="7"/>
+      <c r="C625" s="9"/>
     </row>
     <row r="626" ht="12.0" customHeight="1">
-      <c r="C626" s="7"/>
+      <c r="C626" s="9"/>
     </row>
     <row r="627" ht="12.0" customHeight="1">
-      <c r="C627" s="7"/>
+      <c r="C627" s="9"/>
     </row>
     <row r="628" ht="12.0" customHeight="1">
-      <c r="C628" s="7"/>
+      <c r="C628" s="9"/>
     </row>
     <row r="629" ht="12.0" customHeight="1">
-      <c r="C629" s="7"/>
+      <c r="C629" s="9"/>
     </row>
     <row r="630" ht="12.0" customHeight="1">
-      <c r="C630" s="7"/>
+      <c r="C630" s="9"/>
     </row>
     <row r="631" ht="12.0" customHeight="1">
-      <c r="C631" s="7"/>
+      <c r="C631" s="9"/>
     </row>
     <row r="632" ht="12.0" customHeight="1">
-      <c r="C632" s="7"/>
+      <c r="C632" s="9"/>
     </row>
     <row r="633" ht="12.0" customHeight="1">
-      <c r="C633" s="7"/>
+      <c r="C633" s="9"/>
     </row>
     <row r="634" ht="12.0" customHeight="1">
-      <c r="C634" s="7"/>
+      <c r="C634" s="9"/>
     </row>
     <row r="635" ht="12.0" customHeight="1">
-      <c r="C635" s="7"/>
+      <c r="C635" s="9"/>
     </row>
     <row r="636" ht="12.0" customHeight="1">
-      <c r="C636" s="7"/>
+      <c r="C636" s="9"/>
     </row>
     <row r="637" ht="12.0" customHeight="1">
-      <c r="C637" s="7"/>
+      <c r="C637" s="9"/>
     </row>
     <row r="638" ht="12.0" customHeight="1">
-      <c r="C638" s="7"/>
+      <c r="C638" s="9"/>
     </row>
     <row r="639" ht="12.0" customHeight="1">
-      <c r="C639" s="7"/>
+      <c r="C639" s="9"/>
     </row>
     <row r="640" ht="12.0" customHeight="1">
-      <c r="C640" s="7"/>
+      <c r="C640" s="9"/>
     </row>
     <row r="641" ht="12.0" customHeight="1">
-      <c r="C641" s="7"/>
+      <c r="C641" s="9"/>
     </row>
     <row r="642" ht="12.0" customHeight="1">
-      <c r="C642" s="7"/>
+      <c r="C642" s="9"/>
     </row>
     <row r="643" ht="12.0" customHeight="1">
-      <c r="C643" s="7"/>
+      <c r="C643" s="9"/>
     </row>
     <row r="644" ht="12.0" customHeight="1">
-      <c r="C644" s="7"/>
+      <c r="C644" s="9"/>
     </row>
     <row r="645" ht="12.0" customHeight="1">
-      <c r="C645" s="7"/>
+      <c r="C645" s="9"/>
     </row>
     <row r="646" ht="12.0" customHeight="1">
-      <c r="C646" s="7"/>
+      <c r="C646" s="9"/>
     </row>
     <row r="647" ht="12.0" customHeight="1">
-      <c r="C647" s="7"/>
+      <c r="C647" s="9"/>
     </row>
     <row r="648" ht="12.0" customHeight="1">
-      <c r="C648" s="7"/>
+      <c r="C648" s="9"/>
     </row>
     <row r="649" ht="12.0" customHeight="1">
-      <c r="C649" s="7"/>
+      <c r="C649" s="9"/>
     </row>
     <row r="650" ht="12.0" customHeight="1">
-      <c r="C650" s="7"/>
+      <c r="C650" s="9"/>
     </row>
     <row r="651" ht="12.0" customHeight="1">
-      <c r="C651" s="7"/>
+      <c r="C651" s="9"/>
     </row>
     <row r="652" ht="12.0" customHeight="1">
-      <c r="C652" s="7"/>
+      <c r="C652" s="9"/>
     </row>
     <row r="653" ht="12.0" customHeight="1">
-      <c r="C653" s="7"/>
+      <c r="C653" s="9"/>
     </row>
     <row r="654" ht="12.0" customHeight="1">
-      <c r="C654" s="7"/>
+      <c r="C654" s="9"/>
     </row>
     <row r="655" ht="12.0" customHeight="1">
-      <c r="C655" s="7"/>
+      <c r="C655" s="9"/>
     </row>
     <row r="656" ht="12.0" customHeight="1">
-      <c r="C656" s="7"/>
+      <c r="C656" s="9"/>
     </row>
     <row r="657" ht="12.0" customHeight="1">
-      <c r="C657" s="7"/>
+      <c r="C657" s="9"/>
     </row>
     <row r="658" ht="12.0" customHeight="1">
-      <c r="C658" s="7"/>
+      <c r="C658" s="9"/>
     </row>
     <row r="659" ht="12.0" customHeight="1">
-      <c r="C659" s="7"/>
+      <c r="C659" s="9"/>
     </row>
     <row r="660" ht="12.0" customHeight="1">
-      <c r="C660" s="7"/>
+      <c r="C660" s="9"/>
     </row>
     <row r="661" ht="12.0" customHeight="1">
-      <c r="C661" s="7"/>
+      <c r="C661" s="9"/>
     </row>
     <row r="662" ht="12.0" customHeight="1">
-      <c r="C662" s="7"/>
+      <c r="C662" s="9"/>
     </row>
     <row r="663" ht="12.0" customHeight="1">
-      <c r="C663" s="7"/>
+      <c r="C663" s="9"/>
     </row>
     <row r="664" ht="12.0" customHeight="1">
-      <c r="C664" s="7"/>
+      <c r="C664" s="9"/>
     </row>
     <row r="665" ht="12.0" customHeight="1">
-      <c r="C665" s="7"/>
+      <c r="C665" s="9"/>
     </row>
     <row r="666" ht="12.0" customHeight="1">
-      <c r="C666" s="7"/>
+      <c r="C666" s="9"/>
     </row>
     <row r="667" ht="12.0" customHeight="1">
-      <c r="C667" s="7"/>
+      <c r="C667" s="9"/>
     </row>
     <row r="668" ht="12.0" customHeight="1">
-      <c r="C668" s="7"/>
+      <c r="C668" s="9"/>
     </row>
     <row r="669" ht="12.0" customHeight="1">
-      <c r="C669" s="7"/>
+      <c r="C669" s="9"/>
     </row>
     <row r="670" ht="12.0" customHeight="1">
-      <c r="C670" s="7"/>
+      <c r="C670" s="9"/>
     </row>
     <row r="671" ht="12.0" customHeight="1">
-      <c r="C671" s="7"/>
+      <c r="C671" s="9"/>
     </row>
     <row r="672" ht="12.0" customHeight="1">
-      <c r="C672" s="7"/>
+      <c r="C672" s="9"/>
     </row>
     <row r="673" ht="12.0" customHeight="1">
-      <c r="C673" s="7"/>
+      <c r="C673" s="9"/>
     </row>
     <row r="674" ht="12.0" customHeight="1">
-      <c r="C674" s="7"/>
+      <c r="C674" s="9"/>
     </row>
     <row r="675" ht="12.0" customHeight="1">
-      <c r="C675" s="7"/>
+      <c r="C675" s="9"/>
     </row>
     <row r="676" ht="12.0" customHeight="1">
-      <c r="C676" s="7"/>
+      <c r="C676" s="9"/>
     </row>
     <row r="677" ht="12.0" customHeight="1">
-      <c r="C677" s="7"/>
+      <c r="C677" s="9"/>
     </row>
     <row r="678" ht="12.0" customHeight="1">
-      <c r="C678" s="7"/>
+      <c r="C678" s="9"/>
     </row>
     <row r="679" ht="12.0" customHeight="1">
-      <c r="C679" s="7"/>
+      <c r="C679" s="9"/>
     </row>
     <row r="680" ht="12.0" customHeight="1">
-      <c r="C680" s="7"/>
+      <c r="C680" s="9"/>
     </row>
     <row r="681" ht="12.0" customHeight="1">
-      <c r="C681" s="7"/>
+      <c r="C681" s="9"/>
     </row>
     <row r="682" ht="12.0" customHeight="1">
-      <c r="C682" s="7"/>
+      <c r="C682" s="9"/>
     </row>
     <row r="683" ht="12.0" customHeight="1">
-      <c r="C683" s="7"/>
+      <c r="C683" s="9"/>
     </row>
     <row r="684" ht="12.0" customHeight="1">
-      <c r="C684" s="7"/>
+      <c r="C684" s="9"/>
     </row>
     <row r="685" ht="12.0" customHeight="1">
-      <c r="C685" s="7"/>
+      <c r="C685" s="9"/>
     </row>
     <row r="686" ht="12.0" customHeight="1">
-      <c r="C686" s="7"/>
+      <c r="C686" s="9"/>
     </row>
     <row r="687" ht="12.0" customHeight="1">
-      <c r="C687" s="7"/>
+      <c r="C687" s="9"/>
     </row>
     <row r="688" ht="12.0" customHeight="1">
-      <c r="C688" s="7"/>
+      <c r="C688" s="9"/>
     </row>
     <row r="689" ht="12.0" customHeight="1">
-      <c r="C689" s="7"/>
+      <c r="C689" s="9"/>
     </row>
     <row r="690" ht="12.0" customHeight="1">
-      <c r="C690" s="7"/>
+      <c r="C690" s="9"/>
     </row>
     <row r="691" ht="12.0" customHeight="1">
-      <c r="C691" s="7"/>
+      <c r="C691" s="9"/>
     </row>
     <row r="692" ht="12.0" customHeight="1">
-      <c r="C692" s="7"/>
+      <c r="C692" s="9"/>
     </row>
     <row r="693" ht="12.0" customHeight="1">
-      <c r="C693" s="7"/>
+      <c r="C693" s="9"/>
     </row>
     <row r="694" ht="12.0" customHeight="1">
-      <c r="C694" s="7"/>
+      <c r="C694" s="9"/>
     </row>
     <row r="695" ht="12.0" customHeight="1">
-      <c r="C695" s="7"/>
+      <c r="C695" s="9"/>
     </row>
     <row r="696" ht="12.0" customHeight="1">
-      <c r="C696" s="7"/>
+      <c r="C696" s="9"/>
     </row>
     <row r="697" ht="12.0" customHeight="1">
-      <c r="C697" s="7"/>
+      <c r="C697" s="9"/>
     </row>
     <row r="698" ht="12.0" customHeight="1">
-      <c r="C698" s="7"/>
+      <c r="C698" s="9"/>
     </row>
     <row r="699" ht="12.0" customHeight="1">
-      <c r="C699" s="7"/>
+      <c r="C699" s="9"/>
     </row>
     <row r="700" ht="12.0" customHeight="1">
-      <c r="C700" s="7"/>
+      <c r="C700" s="9"/>
     </row>
     <row r="701" ht="12.0" customHeight="1">
-      <c r="C701" s="7"/>
+      <c r="C701" s="9"/>
     </row>
     <row r="702" ht="12.0" customHeight="1">
-      <c r="C702" s="7"/>
+      <c r="C702" s="9"/>
     </row>
     <row r="703" ht="12.0" customHeight="1">
-      <c r="C703" s="7"/>
+      <c r="C703" s="9"/>
     </row>
     <row r="704" ht="12.0" customHeight="1">
-      <c r="C704" s="7"/>
+      <c r="C704" s="9"/>
     </row>
     <row r="705" ht="12.0" customHeight="1">
-      <c r="C705" s="7"/>
+      <c r="C705" s="9"/>
     </row>
     <row r="706" ht="12.0" customHeight="1">
-      <c r="C706" s="7"/>
+      <c r="C706" s="9"/>
     </row>
     <row r="707" ht="12.0" customHeight="1">
-      <c r="C707" s="7"/>
+      <c r="C707" s="9"/>
     </row>
     <row r="708" ht="12.0" customHeight="1">
-      <c r="C708" s="7"/>
+      <c r="C708" s="9"/>
     </row>
     <row r="709" ht="12.0" customHeight="1">
-      <c r="C709" s="7"/>
+      <c r="C709" s="9"/>
     </row>
     <row r="710" ht="12.0" customHeight="1">
-      <c r="C710" s="7"/>
+      <c r="C710" s="9"/>
     </row>
     <row r="711" ht="12.0" customHeight="1">
-      <c r="C711" s="7"/>
+      <c r="C711" s="9"/>
     </row>
     <row r="712" ht="12.0" customHeight="1">
-      <c r="C712" s="7"/>
+      <c r="C712" s="9"/>
     </row>
     <row r="713" ht="12.0" customHeight="1">
-      <c r="C713" s="7"/>
+      <c r="C713" s="9"/>
     </row>
     <row r="714" ht="12.0" customHeight="1">
-      <c r="C714" s="7"/>
+      <c r="C714" s="9"/>
     </row>
     <row r="715" ht="12.0" customHeight="1">
-      <c r="C715" s="7"/>
+      <c r="C715" s="9"/>
     </row>
     <row r="716" ht="12.0" customHeight="1">
-      <c r="C716" s="7"/>
+      <c r="C716" s="9"/>
     </row>
     <row r="717" ht="12.0" customHeight="1">
-      <c r="C717" s="7"/>
+      <c r="C717" s="9"/>
     </row>
     <row r="718" ht="12.0" customHeight="1">
-      <c r="C718" s="7"/>
+      <c r="C718" s="9"/>
     </row>
     <row r="719" ht="12.0" customHeight="1">
-      <c r="C719" s="7"/>
+      <c r="C719" s="9"/>
     </row>
     <row r="720" ht="12.0" customHeight="1">
-      <c r="C720" s="7"/>
+      <c r="C720" s="9"/>
     </row>
     <row r="721" ht="12.0" customHeight="1">
-      <c r="C721" s="7"/>
+      <c r="C721" s="9"/>
     </row>
     <row r="722" ht="12.0" customHeight="1">
-      <c r="C722" s="7"/>
+      <c r="C722" s="9"/>
     </row>
     <row r="723" ht="12.0" customHeight="1">
-      <c r="C723" s="7"/>
+      <c r="C723" s="9"/>
     </row>
     <row r="724" ht="12.0" customHeight="1">
-      <c r="C724" s="7"/>
+      <c r="C724" s="9"/>
     </row>
     <row r="725" ht="12.0" customHeight="1">
-      <c r="C725" s="7"/>
+      <c r="C725" s="9"/>
     </row>
     <row r="726" ht="12.0" customHeight="1">
-      <c r="C726" s="7"/>
+      <c r="C726" s="9"/>
     </row>
     <row r="727" ht="12.0" customHeight="1">
-      <c r="C727" s="7"/>
+      <c r="C727" s="9"/>
     </row>
     <row r="728" ht="12.0" customHeight="1">
-      <c r="C728" s="7"/>
+      <c r="C728" s="9"/>
     </row>
     <row r="729" ht="12.0" customHeight="1">
-      <c r="C729" s="7"/>
+      <c r="C729" s="9"/>
     </row>
     <row r="730" ht="12.0" customHeight="1">
-      <c r="C730" s="7"/>
+      <c r="C730" s="9"/>
     </row>
     <row r="731" ht="12.0" customHeight="1">
-      <c r="C731" s="7"/>
+      <c r="C731" s="9"/>
     </row>
     <row r="732" ht="12.0" customHeight="1">
-      <c r="C732" s="7"/>
+      <c r="C732" s="9"/>
     </row>
     <row r="733" ht="12.0" customHeight="1">
-      <c r="C733" s="7"/>
+      <c r="C733" s="9"/>
     </row>
     <row r="734" ht="12.0" customHeight="1">
-      <c r="C734" s="7"/>
+      <c r="C734" s="9"/>
     </row>
     <row r="735" ht="12.0" customHeight="1">
-      <c r="C735" s="7"/>
+      <c r="C735" s="9"/>
     </row>
     <row r="736" ht="12.0" customHeight="1">
-      <c r="C736" s="7"/>
+      <c r="C736" s="9"/>
     </row>
     <row r="737" ht="12.0" customHeight="1">
-      <c r="C737" s="7"/>
+      <c r="C737" s="9"/>
     </row>
     <row r="738" ht="12.0" customHeight="1">
-      <c r="C738" s="7"/>
+      <c r="C738" s="9"/>
     </row>
     <row r="739" ht="12.0" customHeight="1">
-      <c r="C739" s="7"/>
+      <c r="C739" s="9"/>
     </row>
     <row r="740" ht="12.0" customHeight="1">
-      <c r="C740" s="7"/>
+      <c r="C740" s="9"/>
     </row>
     <row r="741" ht="12.0" customHeight="1">
-      <c r="C741" s="7"/>
+      <c r="C741" s="9"/>
     </row>
     <row r="742" ht="12.0" customHeight="1">
-      <c r="C742" s="7"/>
+      <c r="C742" s="9"/>
     </row>
     <row r="743" ht="12.0" customHeight="1">
-      <c r="C743" s="7"/>
+      <c r="C743" s="9"/>
     </row>
     <row r="744" ht="12.0" customHeight="1">
-      <c r="C744" s="7"/>
+      <c r="C744" s="9"/>
     </row>
     <row r="745" ht="12.0" customHeight="1">
-      <c r="C745" s="7"/>
+      <c r="C745" s="9"/>
     </row>
     <row r="746" ht="12.0" customHeight="1">
-      <c r="C746" s="7"/>
+      <c r="C746" s="9"/>
     </row>
     <row r="747" ht="12.0" customHeight="1">
-      <c r="C747" s="7"/>
+      <c r="C747" s="9"/>
     </row>
     <row r="748" ht="12.0" customHeight="1">
-      <c r="C748" s="7"/>
+      <c r="C748" s="9"/>
     </row>
     <row r="749" ht="12.0" customHeight="1">
-      <c r="C749" s="7"/>
+      <c r="C749" s="9"/>
     </row>
     <row r="750" ht="12.0" customHeight="1">
-      <c r="C750" s="7"/>
+      <c r="C750" s="9"/>
     </row>
     <row r="751" ht="12.0" customHeight="1">
-      <c r="C751" s="7"/>
+      <c r="C751" s="9"/>
     </row>
     <row r="752" ht="12.0" customHeight="1">
-      <c r="C752" s="7"/>
+      <c r="C752" s="9"/>
     </row>
     <row r="753" ht="12.0" customHeight="1">
-      <c r="C753" s="7"/>
+      <c r="C753" s="9"/>
     </row>
     <row r="754" ht="12.0" customHeight="1">
-      <c r="C754" s="7"/>
+      <c r="C754" s="9"/>
     </row>
     <row r="755" ht="12.0" customHeight="1">
-      <c r="C755" s="7"/>
+      <c r="C755" s="9"/>
     </row>
     <row r="756" ht="12.0" customHeight="1">
-      <c r="C756" s="7"/>
+      <c r="C756" s="9"/>
     </row>
     <row r="757" ht="12.0" customHeight="1">
-      <c r="C757" s="7"/>
+      <c r="C757" s="9"/>
     </row>
     <row r="758" ht="12.0" customHeight="1">
-      <c r="C758" s="7"/>
+      <c r="C758" s="9"/>
     </row>
     <row r="759" ht="12.0" customHeight="1">
-      <c r="C759" s="7"/>
+      <c r="C759" s="9"/>
     </row>
     <row r="760" ht="12.0" customHeight="1">
-      <c r="C760" s="7"/>
+      <c r="C760" s="9"/>
     </row>
     <row r="761" ht="12.0" customHeight="1">
-      <c r="C761" s="7"/>
+      <c r="C761" s="9"/>
     </row>
     <row r="762" ht="12.0" customHeight="1">
-      <c r="C762" s="7"/>
+      <c r="C762" s="9"/>
     </row>
     <row r="763" ht="12.0" customHeight="1">
-      <c r="C763" s="7"/>
+      <c r="C763" s="9"/>
     </row>
     <row r="764" ht="12.0" customHeight="1">
-      <c r="C764" s="7"/>
+      <c r="C764" s="9"/>
     </row>
     <row r="765" ht="12.0" customHeight="1">
-      <c r="C765" s="7"/>
+      <c r="C765" s="9"/>
     </row>
     <row r="766" ht="12.0" customHeight="1">
-      <c r="C766" s="7"/>
+      <c r="C766" s="9"/>
     </row>
     <row r="767" ht="12.0" customHeight="1">
-      <c r="C767" s="7"/>
+      <c r="C767" s="9"/>
     </row>
     <row r="768" ht="12.0" customHeight="1">
-      <c r="C768" s="7"/>
+      <c r="C768" s="9"/>
     </row>
     <row r="769" ht="12.0" customHeight="1">
-      <c r="C769" s="7"/>
+      <c r="C769" s="9"/>
     </row>
     <row r="770" ht="12.0" customHeight="1">
-      <c r="C770" s="7"/>
+      <c r="C770" s="9"/>
     </row>
     <row r="771" ht="12.0" customHeight="1">
-      <c r="C771" s="7"/>
+      <c r="C771" s="9"/>
     </row>
     <row r="772" ht="12.0" customHeight="1">
-      <c r="C772" s="7"/>
+      <c r="C772" s="9"/>
     </row>
     <row r="773" ht="12.0" customHeight="1">
-      <c r="C773" s="7"/>
+      <c r="C773" s="9"/>
     </row>
     <row r="774" ht="12.0" customHeight="1">
-      <c r="C774" s="7"/>
+      <c r="C774" s="9"/>
     </row>
     <row r="775" ht="12.0" customHeight="1">
-      <c r="C775" s="7"/>
+      <c r="C775" s="9"/>
     </row>
     <row r="776" ht="12.0" customHeight="1">
-      <c r="C776" s="7"/>
+      <c r="C776" s="9"/>
     </row>
     <row r="777" ht="12.0" customHeight="1">
-      <c r="C777" s="7"/>
+      <c r="C777" s="9"/>
     </row>
     <row r="778" ht="12.0" customHeight="1">
-      <c r="C778" s="7"/>
+      <c r="C778" s="9"/>
     </row>
     <row r="779" ht="12.0" customHeight="1">
-      <c r="C779" s="7"/>
+      <c r="C779" s="9"/>
     </row>
     <row r="780" ht="12.0" customHeight="1">
-      <c r="C780" s="7"/>
+      <c r="C780" s="9"/>
     </row>
     <row r="781" ht="12.0" customHeight="1">
-      <c r="C781" s="7"/>
+      <c r="C781" s="9"/>
     </row>
     <row r="782" ht="12.0" customHeight="1">
-      <c r="C782" s="7"/>
+      <c r="C782" s="9"/>
     </row>
     <row r="783" ht="12.0" customHeight="1">
-      <c r="C783" s="7"/>
+      <c r="C783" s="9"/>
     </row>
     <row r="784" ht="12.0" customHeight="1">
-      <c r="C784" s="7"/>
+      <c r="C784" s="9"/>
     </row>
     <row r="785" ht="12.0" customHeight="1">
-      <c r="C785" s="7"/>
+      <c r="C785" s="9"/>
     </row>
     <row r="786" ht="12.0" customHeight="1">
-      <c r="C786" s="7"/>
+      <c r="C786" s="9"/>
     </row>
     <row r="787" ht="12.0" customHeight="1">
-      <c r="C787" s="7"/>
+      <c r="C787" s="9"/>
     </row>
     <row r="788" ht="12.0" customHeight="1">
-      <c r="C788" s="7"/>
+      <c r="C788" s="9"/>
     </row>
     <row r="789" ht="12.0" customHeight="1">
-      <c r="C789" s="7"/>
+      <c r="C789" s="9"/>
     </row>
     <row r="790" ht="12.0" customHeight="1">
-      <c r="C790" s="7"/>
+      <c r="C790" s="9"/>
     </row>
     <row r="791" ht="12.0" customHeight="1">
-      <c r="C791" s="7"/>
+      <c r="C791" s="9"/>
     </row>
     <row r="792" ht="12.0" customHeight="1">
-      <c r="C792" s="7"/>
+      <c r="C792" s="9"/>
     </row>
     <row r="793" ht="12.0" customHeight="1">
-      <c r="C793" s="7"/>
+      <c r="C793" s="9"/>
     </row>
     <row r="794" ht="12.0" customHeight="1">
-      <c r="C794" s="7"/>
+      <c r="C794" s="9"/>
     </row>
     <row r="795" ht="12.0" customHeight="1">
-      <c r="C795" s="7"/>
+      <c r="C795" s="9"/>
     </row>
     <row r="796" ht="12.0" customHeight="1">
-      <c r="C796" s="7"/>
+      <c r="C796" s="9"/>
     </row>
     <row r="797" ht="12.0" customHeight="1">
-      <c r="C797" s="7"/>
+      <c r="C797" s="9"/>
     </row>
     <row r="798" ht="12.0" customHeight="1">
-      <c r="C798" s="7"/>
+      <c r="C798" s="9"/>
     </row>
     <row r="799" ht="12.0" customHeight="1">
-      <c r="C799" s="7"/>
+      <c r="C799" s="9"/>
     </row>
     <row r="800" ht="12.0" customHeight="1">
-      <c r="C800" s="7"/>
+      <c r="C800" s="9"/>
     </row>
     <row r="801" ht="12.0" customHeight="1">
-      <c r="C801" s="7"/>
+      <c r="C801" s="9"/>
     </row>
     <row r="802" ht="12.0" customHeight="1">
-      <c r="C802" s="7"/>
+      <c r="C802" s="9"/>
     </row>
     <row r="803" ht="12.0" customHeight="1">
-      <c r="C803" s="7"/>
+      <c r="C803" s="9"/>
     </row>
     <row r="804" ht="12.0" customHeight="1">
-      <c r="C804" s="7"/>
+      <c r="C804" s="9"/>
     </row>
     <row r="805" ht="12.0" customHeight="1">
-      <c r="C805" s="7"/>
+      <c r="C805" s="9"/>
     </row>
     <row r="806" ht="12.0" customHeight="1">
-      <c r="C806" s="7"/>
+      <c r="C806" s="9"/>
     </row>
     <row r="807" ht="12.0" customHeight="1">
-      <c r="C807" s="7"/>
+      <c r="C807" s="9"/>
     </row>
     <row r="808" ht="12.0" customHeight="1">
-      <c r="C808" s="7"/>
+      <c r="C808" s="9"/>
     </row>
     <row r="809" ht="12.0" customHeight="1">
-      <c r="C809" s="7"/>
+      <c r="C809" s="9"/>
     </row>
     <row r="810" ht="12.0" customHeight="1">
-      <c r="C810" s="7"/>
+      <c r="C810" s="9"/>
     </row>
     <row r="811" ht="12.0" customHeight="1">
-      <c r="C811" s="7"/>
+      <c r="C811" s="9"/>
     </row>
     <row r="812" ht="12.0" customHeight="1">
-      <c r="C812" s="7"/>
+      <c r="C812" s="9"/>
     </row>
     <row r="813" ht="12.0" customHeight="1">
-      <c r="C813" s="7"/>
+      <c r="C813" s="9"/>
     </row>
     <row r="814" ht="12.0" customHeight="1">
-      <c r="C814" s="7"/>
+      <c r="C814" s="9"/>
     </row>
     <row r="815" ht="12.0" customHeight="1">
-      <c r="C815" s="7"/>
+      <c r="C815" s="9"/>
     </row>
     <row r="816" ht="12.0" customHeight="1">
-      <c r="C816" s="7"/>
+      <c r="C816" s="9"/>
     </row>
     <row r="817" ht="12.0" customHeight="1">
-      <c r="C817" s="7"/>
+      <c r="C817" s="9"/>
     </row>
     <row r="818" ht="12.0" customHeight="1">
-      <c r="C818" s="7"/>
+      <c r="C818" s="9"/>
     </row>
     <row r="819" ht="12.0" customHeight="1">
-      <c r="C819" s="7"/>
+      <c r="C819" s="9"/>
     </row>
     <row r="820" ht="12.0" customHeight="1">
-      <c r="C820" s="7"/>
+      <c r="C820" s="9"/>
     </row>
     <row r="821" ht="12.0" customHeight="1">
-      <c r="C821" s="7"/>
+      <c r="C821" s="9"/>
     </row>
     <row r="822" ht="12.0" customHeight="1">
-      <c r="C822" s="7"/>
+      <c r="C822" s="9"/>
     </row>
     <row r="823" ht="12.0" customHeight="1">
-      <c r="C823" s="7"/>
+      <c r="C823" s="9"/>
     </row>
     <row r="824" ht="12.0" customHeight="1">
-      <c r="C824" s="7"/>
+      <c r="C824" s="9"/>
     </row>
     <row r="825" ht="12.0" customHeight="1">
-      <c r="C825" s="7"/>
+      <c r="C825" s="9"/>
     </row>
     <row r="826" ht="12.0" customHeight="1">
-      <c r="C826" s="7"/>
+      <c r="C826" s="9"/>
     </row>
     <row r="827" ht="12.0" customHeight="1">
-      <c r="C827" s="7"/>
+      <c r="C827" s="9"/>
     </row>
     <row r="828" ht="12.0" customHeight="1">
-      <c r="C828" s="7"/>
+      <c r="C828" s="9"/>
     </row>
     <row r="829" ht="12.0" customHeight="1">
-      <c r="C829" s="7"/>
+      <c r="C829" s="9"/>
     </row>
     <row r="830" ht="12.0" customHeight="1">
-      <c r="C830" s="7"/>
+      <c r="C830" s="9"/>
     </row>
     <row r="831" ht="12.0" customHeight="1">
-      <c r="C831" s="7"/>
+      <c r="C831" s="9"/>
     </row>
     <row r="832" ht="12.0" customHeight="1">
-      <c r="C832" s="7"/>
+      <c r="C832" s="9"/>
     </row>
     <row r="833" ht="12.0" customHeight="1">
-      <c r="C833" s="7"/>
+      <c r="C833" s="9"/>
     </row>
     <row r="834" ht="12.0" customHeight="1">
-      <c r="C834" s="7"/>
+      <c r="C834" s="9"/>
     </row>
     <row r="835" ht="12.0" customHeight="1">
-      <c r="C835" s="7"/>
+      <c r="C835" s="9"/>
     </row>
     <row r="836" ht="12.0" customHeight="1">
-      <c r="C836" s="7"/>
+      <c r="C836" s="9"/>
     </row>
     <row r="837" ht="12.0" customHeight="1">
-      <c r="C837" s="7"/>
+      <c r="C837" s="9"/>
     </row>
     <row r="838" ht="12.0" customHeight="1">
-      <c r="C838" s="7"/>
+      <c r="C838" s="9"/>
     </row>
     <row r="839" ht="12.0" customHeight="1">
-      <c r="C839" s="7"/>
+      <c r="C839" s="9"/>
     </row>
     <row r="840" ht="12.0" customHeight="1">
-      <c r="C840" s="7"/>
+      <c r="C840" s="9"/>
     </row>
     <row r="841" ht="12.0" customHeight="1">
-      <c r="C841" s="7"/>
+      <c r="C841" s="9"/>
     </row>
     <row r="842" ht="12.0" customHeight="1">
-      <c r="C842" s="7"/>
+      <c r="C842" s="9"/>
     </row>
     <row r="843" ht="12.0" customHeight="1">
-      <c r="C843" s="7"/>
+      <c r="C843" s="9"/>
     </row>
     <row r="844" ht="12.0" customHeight="1">
-      <c r="C844" s="7"/>
+      <c r="C844" s="9"/>
     </row>
     <row r="845" ht="12.0" customHeight="1">
-      <c r="C845" s="7"/>
+      <c r="C845" s="9"/>
     </row>
     <row r="846" ht="12.0" customHeight="1">
-      <c r="C846" s="7"/>
+      <c r="C846" s="9"/>
     </row>
     <row r="847" ht="12.0" customHeight="1">
-      <c r="C847" s="7"/>
+      <c r="C847" s="9"/>
     </row>
     <row r="848" ht="12.0" customHeight="1">
-      <c r="C848" s="7"/>
+      <c r="C848" s="9"/>
     </row>
     <row r="849" ht="12.0" customHeight="1">
-      <c r="C849" s="7"/>
+      <c r="C849" s="9"/>
     </row>
     <row r="850" ht="12.0" customHeight="1">
-      <c r="C850" s="7"/>
+      <c r="C850" s="9"/>
     </row>
     <row r="851" ht="12.0" customHeight="1">
-      <c r="C851" s="7"/>
+      <c r="C851" s="9"/>
     </row>
     <row r="852" ht="12.0" customHeight="1">
-      <c r="C852" s="7"/>
+      <c r="C852" s="9"/>
     </row>
     <row r="853" ht="12.0" customHeight="1">
-      <c r="C853" s="7"/>
+      <c r="C853" s="9"/>
     </row>
     <row r="854" ht="12.0" customHeight="1">
-      <c r="C854" s="7"/>
+      <c r="C854" s="9"/>
     </row>
     <row r="855" ht="12.0" customHeight="1">
-      <c r="C855" s="7"/>
+      <c r="C855" s="9"/>
     </row>
     <row r="856" ht="12.0" customHeight="1">
-      <c r="C856" s="7"/>
+      <c r="C856" s="9"/>
     </row>
     <row r="857" ht="12.0" customHeight="1">
-      <c r="C857" s="7"/>
+      <c r="C857" s="9"/>
     </row>
     <row r="858" ht="12.0" customHeight="1">
-      <c r="C858" s="7"/>
+      <c r="C858" s="9"/>
     </row>
     <row r="859" ht="12.0" customHeight="1">
-      <c r="C859" s="7"/>
+      <c r="C859" s="9"/>
     </row>
     <row r="860" ht="12.0" customHeight="1">
-      <c r="C860" s="7"/>
+      <c r="C860" s="9"/>
     </row>
     <row r="861" ht="12.0" customHeight="1">
-      <c r="C861" s="7"/>
+      <c r="C861" s="9"/>
     </row>
     <row r="862" ht="12.0" customHeight="1">
-      <c r="C862" s="7"/>
+      <c r="C862" s="9"/>
     </row>
     <row r="863" ht="12.0" customHeight="1">
-      <c r="C863" s="7"/>
+      <c r="C863" s="9"/>
     </row>
     <row r="864" ht="12.0" customHeight="1">
-      <c r="C864" s="7"/>
+      <c r="C864" s="9"/>
     </row>
     <row r="865" ht="12.0" customHeight="1">
-      <c r="C865" s="7"/>
+      <c r="C865" s="9"/>
     </row>
     <row r="866" ht="12.0" customHeight="1">
-      <c r="C866" s="7"/>
+      <c r="C866" s="9"/>
     </row>
     <row r="867" ht="12.0" customHeight="1">
-      <c r="C867" s="7"/>
+      <c r="C867" s="9"/>
     </row>
     <row r="868" ht="12.0" customHeight="1">
-      <c r="C868" s="7"/>
+      <c r="C868" s="9"/>
     </row>
     <row r="869" ht="12.0" customHeight="1">
-      <c r="C869" s="7"/>
+      <c r="C869" s="9"/>
     </row>
     <row r="870" ht="12.0" customHeight="1">
-      <c r="C870" s="7"/>
+      <c r="C870" s="9"/>
     </row>
     <row r="871" ht="12.0" customHeight="1">
-      <c r="C871" s="7"/>
+      <c r="C871" s="9"/>
     </row>
     <row r="872" ht="12.0" customHeight="1">
-      <c r="C872" s="7"/>
+      <c r="C872" s="9"/>
     </row>
     <row r="873" ht="12.0" customHeight="1">
-      <c r="C873" s="7"/>
+      <c r="C873" s="9"/>
     </row>
     <row r="874" ht="12.0" customHeight="1">
-      <c r="C874" s="7"/>
+      <c r="C874" s="9"/>
     </row>
     <row r="875" ht="12.0" customHeight="1">
-      <c r="C875" s="7"/>
+      <c r="C875" s="9"/>
     </row>
     <row r="876" ht="12.0" customHeight="1">
-      <c r="C876" s="7"/>
+      <c r="C876" s="9"/>
     </row>
     <row r="877" ht="12.0" customHeight="1">
-      <c r="C877" s="7"/>
+      <c r="C877" s="9"/>
     </row>
     <row r="878" ht="12.0" customHeight="1">
-      <c r="C878" s="7"/>
+      <c r="C878" s="9"/>
     </row>
     <row r="879" ht="12.0" customHeight="1">
-      <c r="C879" s="7"/>
+      <c r="C879" s="9"/>
     </row>
     <row r="880" ht="12.0" customHeight="1">
-      <c r="C880" s="7"/>
+      <c r="C880" s="9"/>
     </row>
     <row r="881" ht="12.0" customHeight="1">
-      <c r="C881" s="7"/>
+      <c r="C881" s="9"/>
     </row>
     <row r="882" ht="12.0" customHeight="1">
-      <c r="C882" s="7"/>
+      <c r="C882" s="9"/>
     </row>
     <row r="883" ht="12.0" customHeight="1">
-      <c r="C883" s="7"/>
+      <c r="C883" s="9"/>
     </row>
     <row r="884" ht="12.0" customHeight="1">
-      <c r="C884" s="7"/>
+      <c r="C884" s="9"/>
     </row>
     <row r="885" ht="12.0" customHeight="1">
-      <c r="C885" s="7"/>
+      <c r="C885" s="9"/>
     </row>
     <row r="886" ht="12.0" customHeight="1">
-      <c r="C886" s="7"/>
+      <c r="C886" s="9"/>
     </row>
     <row r="887" ht="12.0" customHeight="1">
-      <c r="C887" s="7"/>
+      <c r="C887" s="9"/>
     </row>
     <row r="888" ht="12.0" customHeight="1">
-      <c r="C888" s="7"/>
+      <c r="C888" s="9"/>
     </row>
     <row r="889" ht="12.0" customHeight="1">
-      <c r="C889" s="7"/>
+      <c r="C889" s="9"/>
     </row>
     <row r="890" ht="12.0" customHeight="1">
-      <c r="C890" s="7"/>
+      <c r="C890" s="9"/>
     </row>
     <row r="891" ht="12.0" customHeight="1">
-      <c r="C891" s="7"/>
+      <c r="C891" s="9"/>
     </row>
     <row r="892" ht="12.0" customHeight="1">
-      <c r="C892" s="7"/>
+      <c r="C892" s="9"/>
     </row>
     <row r="893" ht="12.0" customHeight="1">
-      <c r="C893" s="7"/>
+      <c r="C893" s="9"/>
     </row>
     <row r="894" ht="12.0" customHeight="1">
-      <c r="C894" s="7"/>
+      <c r="C894" s="9"/>
     </row>
     <row r="895" ht="12.0" customHeight="1">
-      <c r="C895" s="7"/>
+      <c r="C895" s="9"/>
     </row>
     <row r="896" ht="12.0" customHeight="1">
-      <c r="C896" s="7"/>
+      <c r="C896" s="9"/>
     </row>
     <row r="897" ht="12.0" customHeight="1">
-      <c r="C897" s="7"/>
+      <c r="C897" s="9"/>
     </row>
     <row r="898" ht="12.0" customHeight="1">
-      <c r="C898" s="7"/>
+      <c r="C898" s="9"/>
     </row>
     <row r="899" ht="12.0" customHeight="1">
-      <c r="C899" s="7"/>
+      <c r="C899" s="9"/>
     </row>
     <row r="900" ht="12.0" customHeight="1">
-      <c r="C900" s="7"/>
+      <c r="C900" s="9"/>
     </row>
     <row r="901" ht="12.0" customHeight="1">
-      <c r="C901" s="7"/>
+      <c r="C901" s="9"/>
     </row>
     <row r="902" ht="12.0" customHeight="1">
-      <c r="C902" s="7"/>
+      <c r="C902" s="9"/>
     </row>
     <row r="903" ht="12.0" customHeight="1">
-      <c r="C903" s="7"/>
+      <c r="C903" s="9"/>
     </row>
     <row r="904" ht="12.0" customHeight="1">
-      <c r="C904" s="7"/>
+      <c r="C904" s="9"/>
     </row>
     <row r="905" ht="12.0" customHeight="1">
-      <c r="C905" s="7"/>
+      <c r="C905" s="9"/>
     </row>
     <row r="906" ht="12.0" customHeight="1">
-      <c r="C906" s="7"/>
+      <c r="C906" s="9"/>
     </row>
     <row r="907" ht="12.0" customHeight="1">
-      <c r="C907" s="7"/>
+      <c r="C907" s="9"/>
     </row>
     <row r="908" ht="12.0" customHeight="1">
-      <c r="C908" s="7"/>
+      <c r="C908" s="9"/>
     </row>
     <row r="909" ht="12.0" customHeight="1">
-      <c r="C909" s="7"/>
+      <c r="C909" s="9"/>
     </row>
     <row r="910" ht="12.0" customHeight="1">
-      <c r="C910" s="7"/>
+      <c r="C910" s="9"/>
     </row>
     <row r="911" ht="12.0" customHeight="1">
-      <c r="C911" s="7"/>
+      <c r="C911" s="9"/>
     </row>
     <row r="912" ht="12.0" customHeight="1">
-      <c r="C912" s="7"/>
+      <c r="C912" s="9"/>
     </row>
     <row r="913" ht="12.0" customHeight="1">
-      <c r="C913" s="7"/>
+      <c r="C913" s="9"/>
     </row>
     <row r="914" ht="12.0" customHeight="1">
-      <c r="C914" s="7"/>
+      <c r="C914" s="9"/>
     </row>
     <row r="915" ht="12.0" customHeight="1">
-      <c r="C915" s="7"/>
+      <c r="C915" s="9"/>
     </row>
     <row r="916" ht="12.0" customHeight="1">
-      <c r="C916" s="7"/>
+      <c r="C916" s="9"/>
     </row>
     <row r="917" ht="12.0" customHeight="1">
-      <c r="C917" s="7"/>
+      <c r="C917" s="9"/>
     </row>
     <row r="918" ht="12.0" customHeight="1">
-      <c r="C918" s="7"/>
+      <c r="C918" s="9"/>
     </row>
     <row r="919" ht="12.0" customHeight="1">
-      <c r="C919" s="7"/>
+      <c r="C919" s="9"/>
     </row>
     <row r="920" ht="12.0" customHeight="1">
-      <c r="C920" s="7"/>
+      <c r="C920" s="9"/>
     </row>
     <row r="921" ht="12.0" customHeight="1">
-      <c r="C921" s="7"/>
+      <c r="C921" s="9"/>
     </row>
     <row r="922" ht="12.0" customHeight="1">
-      <c r="C922" s="7"/>
+      <c r="C922" s="9"/>
     </row>
     <row r="923" ht="12.0" customHeight="1">
-      <c r="C923" s="7"/>
+      <c r="C923" s="9"/>
     </row>
     <row r="924" ht="12.0" customHeight="1">
-      <c r="C924" s="7"/>
+      <c r="C924" s="9"/>
     </row>
     <row r="925" ht="12.0" customHeight="1">
-      <c r="C925" s="7"/>
+      <c r="C925" s="9"/>
     </row>
     <row r="926" ht="12.0" customHeight="1">
-      <c r="C926" s="7"/>
+      <c r="C926" s="9"/>
     </row>
     <row r="927" ht="12.0" customHeight="1">
-      <c r="C927" s="7"/>
+      <c r="C927" s="9"/>
     </row>
     <row r="928" ht="12.0" customHeight="1">
-      <c r="C928" s="7"/>
+      <c r="C928" s="9"/>
     </row>
     <row r="929" ht="12.0" customHeight="1">
-      <c r="C929" s="7"/>
+      <c r="C929" s="9"/>
     </row>
     <row r="930" ht="12.0" customHeight="1">
-      <c r="C930" s="7"/>
+      <c r="C930" s="9"/>
     </row>
     <row r="931" ht="12.0" customHeight="1">
-      <c r="C931" s="7"/>
+      <c r="C931" s="9"/>
     </row>
     <row r="932" ht="12.0" customHeight="1">
-      <c r="C932" s="7"/>
+      <c r="C932" s="9"/>
     </row>
     <row r="933" ht="12.0" customHeight="1">
-      <c r="C933" s="7"/>
+      <c r="C933" s="9"/>
     </row>
     <row r="934" ht="12.0" customHeight="1">
-      <c r="C934" s="7"/>
+      <c r="C934" s="9"/>
     </row>
     <row r="935" ht="12.0" customHeight="1">
-      <c r="C935" s="7"/>
+      <c r="C935" s="9"/>
     </row>
     <row r="936" ht="12.0" customHeight="1">
-      <c r="C936" s="7"/>
+      <c r="C936" s="9"/>
     </row>
     <row r="937" ht="12.0" customHeight="1">
-      <c r="C937" s="7"/>
+      <c r="C937" s="9"/>
     </row>
     <row r="938" ht="12.0" customHeight="1">
-      <c r="C938" s="7"/>
+      <c r="C938" s="9"/>
     </row>
     <row r="939" ht="12.0" customHeight="1">
-      <c r="C939" s="7"/>
+      <c r="C939" s="9"/>
     </row>
     <row r="940" ht="12.0" customHeight="1">
-      <c r="C940" s="7"/>
+      <c r="C940" s="9"/>
     </row>
     <row r="941" ht="12.0" customHeight="1">
-      <c r="C941" s="7"/>
+      <c r="C941" s="9"/>
     </row>
     <row r="942" ht="12.0" customHeight="1">
-      <c r="C942" s="7"/>
+      <c r="C942" s="9"/>
     </row>
     <row r="943" ht="12.0" customHeight="1">
-      <c r="C943" s="7"/>
+      <c r="C943" s="9"/>
     </row>
     <row r="944" ht="12.0" customHeight="1">
-      <c r="C944" s="7"/>
+      <c r="C944" s="9"/>
     </row>
     <row r="945" ht="12.0" customHeight="1">
-      <c r="C945" s="7"/>
+      <c r="C945" s="9"/>
     </row>
     <row r="946" ht="12.0" customHeight="1">
-      <c r="C946" s="7"/>
+      <c r="C946" s="9"/>
     </row>
     <row r="947" ht="12.0" customHeight="1">
-      <c r="C947" s="7"/>
+      <c r="C947" s="9"/>
     </row>
     <row r="948" ht="12.0" customHeight="1">
-      <c r="C948" s="7"/>
+      <c r="C948" s="9"/>
     </row>
     <row r="949" ht="12.0" customHeight="1">
-      <c r="C949" s="7"/>
+      <c r="C949" s="9"/>
     </row>
     <row r="950" ht="12.0" customHeight="1">
-      <c r="C950" s="7"/>
+      <c r="C950" s="9"/>
     </row>
     <row r="951" ht="12.0" customHeight="1">
-      <c r="C951" s="7"/>
+      <c r="C951" s="9"/>
     </row>
     <row r="952" ht="12.0" customHeight="1">
-      <c r="C952" s="7"/>
+      <c r="C952" s="9"/>
     </row>
     <row r="953" ht="12.0" customHeight="1">
-      <c r="C953" s="7"/>
+      <c r="C953" s="9"/>
     </row>
     <row r="954" ht="12.0" customHeight="1">
-      <c r="C954" s="7"/>
+      <c r="C954" s="9"/>
     </row>
     <row r="955" ht="12.0" customHeight="1">
-      <c r="C955" s="7"/>
+      <c r="C955" s="9"/>
     </row>
     <row r="956" ht="12.0" customHeight="1">
-      <c r="C956" s="7"/>
+      <c r="C956" s="9"/>
     </row>
     <row r="957" ht="12.0" customHeight="1">
-      <c r="C957" s="7"/>
+      <c r="C957" s="9"/>
     </row>
     <row r="958" ht="12.0" customHeight="1">
-      <c r="C958" s="7"/>
+      <c r="C958" s="9"/>
     </row>
     <row r="959" ht="12.0" customHeight="1">
-      <c r="C959" s="7"/>
+      <c r="C959" s="9"/>
     </row>
     <row r="960" ht="12.0" customHeight="1">
-      <c r="C960" s="7"/>
+      <c r="C960" s="9"/>
     </row>
     <row r="961" ht="12.0" customHeight="1">
-      <c r="C961" s="7"/>
+      <c r="C961" s="9"/>
     </row>
     <row r="962" ht="12.0" customHeight="1">
-      <c r="C962" s="7"/>
+      <c r="C962" s="9"/>
     </row>
     <row r="963" ht="12.0" customHeight="1">
-      <c r="C963" s="7"/>
+      <c r="C963" s="9"/>
     </row>
     <row r="964" ht="12.0" customHeight="1">
-      <c r="C964" s="7"/>
+      <c r="C964" s="9"/>
     </row>
     <row r="965" ht="12.0" customHeight="1">
-      <c r="C965" s="7"/>
+      <c r="C965" s="9"/>
     </row>
     <row r="966" ht="12.0" customHeight="1">
-      <c r="C966" s="7"/>
+      <c r="C966" s="9"/>
     </row>
     <row r="967" ht="12.0" customHeight="1">
-      <c r="C967" s="7"/>
+      <c r="C967" s="9"/>
     </row>
     <row r="968" ht="12.0" customHeight="1">
-      <c r="C968" s="7"/>
+      <c r="C968" s="9"/>
     </row>
     <row r="969" ht="12.0" customHeight="1">
-      <c r="C969" s="7"/>
+      <c r="C969" s="9"/>
     </row>
     <row r="970" ht="12.0" customHeight="1">
-      <c r="C970" s="7"/>
+      <c r="C970" s="9"/>
     </row>
     <row r="971" ht="12.0" customHeight="1">
-      <c r="C971" s="7"/>
+      <c r="C971" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
